--- a/decisionmaker/preflop.xlsx
+++ b/decisionmaker/preflop.xlsx
@@ -4,87 +4,85 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10830" firstSheet="18" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10830" firstSheet="59" activeTab="66"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="8" r:id="rId1"/>
     <sheet name="12R2" sheetId="71" r:id="rId2"/>
     <sheet name="12R3" sheetId="72" r:id="rId3"/>
     <sheet name="12R4C5" sheetId="68" r:id="rId4"/>
-    <sheet name="12R6" sheetId="84" r:id="rId5"/>
-    <sheet name="2" sheetId="9" r:id="rId6"/>
-    <sheet name="22R3" sheetId="65" r:id="rId7"/>
-    <sheet name="22R6" sheetId="73" r:id="rId8"/>
-    <sheet name="2C1" sheetId="59" r:id="rId9"/>
-    <sheet name="2R1" sheetId="4" r:id="rId10"/>
-    <sheet name="3" sheetId="11" r:id="rId11"/>
-    <sheet name="32R4" sheetId="42" r:id="rId12"/>
-    <sheet name="32R6" sheetId="40" r:id="rId13"/>
-    <sheet name="3C1" sheetId="53" r:id="rId14"/>
-    <sheet name="3C2" sheetId="64" r:id="rId15"/>
-    <sheet name="3R1" sheetId="1" r:id="rId16"/>
-    <sheet name="3R2" sheetId="7" r:id="rId17"/>
-    <sheet name="4" sheetId="2" r:id="rId18"/>
-    <sheet name="42R3" sheetId="82" r:id="rId19"/>
-    <sheet name="42R5" sheetId="75" r:id="rId20"/>
-    <sheet name="42R6" sheetId="76" r:id="rId21"/>
-    <sheet name="4C1" sheetId="44" r:id="rId22"/>
-    <sheet name="4C2" sheetId="81" r:id="rId23"/>
-    <sheet name="4C3" sheetId="62" r:id="rId24"/>
-    <sheet name="4R1" sheetId="21" r:id="rId25"/>
-    <sheet name="4R1C3" sheetId="47" r:id="rId26"/>
-    <sheet name="4R2" sheetId="6" r:id="rId27"/>
-    <sheet name="4R2C3" sheetId="56" r:id="rId28"/>
-    <sheet name="4R3" sheetId="24" r:id="rId29"/>
-    <sheet name="4R3C4R5" sheetId="48" r:id="rId30"/>
-    <sheet name="5" sheetId="5" r:id="rId31"/>
-    <sheet name="52" sheetId="85" r:id="rId32"/>
-    <sheet name="52R6" sheetId="66" r:id="rId33"/>
-    <sheet name="53R6R5R6" sheetId="67" r:id="rId34"/>
-    <sheet name="5C1R3" sheetId="50" r:id="rId35"/>
-    <sheet name="5C2" sheetId="43" r:id="rId36"/>
-    <sheet name="5C3" sheetId="45" r:id="rId37"/>
-    <sheet name="5C4" sheetId="54" r:id="rId38"/>
-    <sheet name="5R1" sheetId="3" r:id="rId39"/>
-    <sheet name="5R1C2" sheetId="35" r:id="rId40"/>
-    <sheet name="5R1C3" sheetId="34" r:id="rId41"/>
-    <sheet name="5R1C4" sheetId="37" r:id="rId42"/>
-    <sheet name="5R1R3" sheetId="46" r:id="rId43"/>
-    <sheet name="5R2" sheetId="22" r:id="rId44"/>
-    <sheet name="5R2C3" sheetId="74" r:id="rId45"/>
-    <sheet name="5R2C4" sheetId="61" r:id="rId46"/>
-    <sheet name="5R2R4" sheetId="79" r:id="rId47"/>
-    <sheet name="5R3" sheetId="25" r:id="rId48"/>
-    <sheet name="5R3R5R3" sheetId="49" r:id="rId49"/>
-    <sheet name="5R4" sheetId="27" r:id="rId50"/>
-    <sheet name="6C1" sheetId="63" r:id="rId51"/>
-    <sheet name="6C2" sheetId="83" r:id="rId52"/>
-    <sheet name="6C2R3" sheetId="70" r:id="rId53"/>
-    <sheet name="6C4" sheetId="52" r:id="rId54"/>
-    <sheet name="6C5" sheetId="30" r:id="rId55"/>
-    <sheet name="6R1" sheetId="10" r:id="rId56"/>
-    <sheet name="6R1C2" sheetId="31" r:id="rId57"/>
-    <sheet name="6R1C3" sheetId="36" r:id="rId58"/>
-    <sheet name="6R1C5" sheetId="39" r:id="rId59"/>
-    <sheet name="6R2" sheetId="23" r:id="rId60"/>
-    <sheet name="6R2C3" sheetId="51" r:id="rId61"/>
-    <sheet name="6R2C4" sheetId="58" r:id="rId62"/>
-    <sheet name="6R2C5" sheetId="60" r:id="rId63"/>
-    <sheet name="6R3" sheetId="26" r:id="rId64"/>
-    <sheet name="6R3C4C5" sheetId="80" r:id="rId65"/>
-    <sheet name="6R3C5" sheetId="57" r:id="rId66"/>
-    <sheet name="6R4" sheetId="28" r:id="rId67"/>
-    <sheet name="6R5" sheetId="29" r:id="rId68"/>
-    <sheet name="Info" sheetId="55" r:id="rId69"/>
-    <sheet name="R1R2" sheetId="32" r:id="rId70"/>
-    <sheet name="R1R2R1A2" sheetId="33" r:id="rId71"/>
+    <sheet name="2" sheetId="9" r:id="rId5"/>
+    <sheet name="22R3" sheetId="65" r:id="rId6"/>
+    <sheet name="22R6" sheetId="73" r:id="rId7"/>
+    <sheet name="2C1" sheetId="59" r:id="rId8"/>
+    <sheet name="2R1" sheetId="4" r:id="rId9"/>
+    <sheet name="3" sheetId="11" r:id="rId10"/>
+    <sheet name="32R4" sheetId="42" r:id="rId11"/>
+    <sheet name="32R6" sheetId="40" r:id="rId12"/>
+    <sheet name="3C1" sheetId="53" r:id="rId13"/>
+    <sheet name="3C2" sheetId="64" r:id="rId14"/>
+    <sheet name="3R1" sheetId="1" r:id="rId15"/>
+    <sheet name="3R2" sheetId="7" r:id="rId16"/>
+    <sheet name="4" sheetId="2" r:id="rId17"/>
+    <sheet name="42R3" sheetId="82" r:id="rId18"/>
+    <sheet name="42R5" sheetId="75" r:id="rId19"/>
+    <sheet name="42R6" sheetId="76" r:id="rId20"/>
+    <sheet name="4C1" sheetId="44" r:id="rId21"/>
+    <sheet name="4C2" sheetId="81" r:id="rId22"/>
+    <sheet name="4C3" sheetId="62" r:id="rId23"/>
+    <sheet name="4R1" sheetId="21" r:id="rId24"/>
+    <sheet name="4R1C3" sheetId="47" r:id="rId25"/>
+    <sheet name="4R2" sheetId="6" r:id="rId26"/>
+    <sheet name="4R2C3" sheetId="56" r:id="rId27"/>
+    <sheet name="4R3" sheetId="24" r:id="rId28"/>
+    <sheet name="4R3C4R5" sheetId="48" r:id="rId29"/>
+    <sheet name="5" sheetId="5" r:id="rId30"/>
+    <sheet name="52R6" sheetId="66" r:id="rId31"/>
+    <sheet name="53R6R5R6" sheetId="67" r:id="rId32"/>
+    <sheet name="5C1R3" sheetId="50" r:id="rId33"/>
+    <sheet name="5C2" sheetId="43" r:id="rId34"/>
+    <sheet name="5C3" sheetId="45" r:id="rId35"/>
+    <sheet name="5C4" sheetId="54" r:id="rId36"/>
+    <sheet name="5R1" sheetId="3" r:id="rId37"/>
+    <sheet name="5R1C2" sheetId="35" r:id="rId38"/>
+    <sheet name="5R1C3" sheetId="34" r:id="rId39"/>
+    <sheet name="5R1C4" sheetId="37" r:id="rId40"/>
+    <sheet name="5R1R3" sheetId="46" r:id="rId41"/>
+    <sheet name="5R2" sheetId="22" r:id="rId42"/>
+    <sheet name="5R2C3" sheetId="74" r:id="rId43"/>
+    <sheet name="5R2C4" sheetId="61" r:id="rId44"/>
+    <sheet name="5R2R4" sheetId="79" r:id="rId45"/>
+    <sheet name="5R3" sheetId="25" r:id="rId46"/>
+    <sheet name="5R3R5R3" sheetId="49" r:id="rId47"/>
+    <sheet name="5R4" sheetId="27" r:id="rId48"/>
+    <sheet name="6C1" sheetId="63" r:id="rId49"/>
+    <sheet name="6C2" sheetId="83" r:id="rId50"/>
+    <sheet name="6C2R3" sheetId="70" r:id="rId51"/>
+    <sheet name="6C4" sheetId="52" r:id="rId52"/>
+    <sheet name="6C5" sheetId="30" r:id="rId53"/>
+    <sheet name="6R1" sheetId="10" r:id="rId54"/>
+    <sheet name="6R1C2" sheetId="31" r:id="rId55"/>
+    <sheet name="6R1C3" sheetId="36" r:id="rId56"/>
+    <sheet name="6R1C5" sheetId="39" r:id="rId57"/>
+    <sheet name="6R2" sheetId="23" r:id="rId58"/>
+    <sheet name="6R2C3" sheetId="51" r:id="rId59"/>
+    <sheet name="6R2C4" sheetId="58" r:id="rId60"/>
+    <sheet name="6R2C5" sheetId="60" r:id="rId61"/>
+    <sheet name="6R3" sheetId="26" r:id="rId62"/>
+    <sheet name="6R3C4C5" sheetId="80" r:id="rId63"/>
+    <sheet name="6R3C5" sheetId="57" r:id="rId64"/>
+    <sheet name="6R4" sheetId="28" r:id="rId65"/>
+    <sheet name="6R5" sheetId="29" r:id="rId66"/>
+    <sheet name="Info" sheetId="55" r:id="rId67"/>
+    <sheet name="R1R2" sheetId="32" r:id="rId68"/>
+    <sheet name="R1R2R1A2" sheetId="33" r:id="rId69"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3294" uniqueCount="175">
   <si>
     <t>A2s</t>
   </si>
@@ -608,7 +606,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.45</t>
+    <t>1.44</t>
   </si>
 </sst>
 </file>
@@ -1826,413 +1824,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="186">
-        <v>0</v>
-      </c>
-      <c r="C2" s="186">
-        <v>1</v>
-      </c>
-      <c r="D2" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="40">
-        <v>0</v>
-      </c>
-      <c r="C3" s="40">
-        <v>1</v>
-      </c>
-      <c r="D3" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="40">
-        <v>0</v>
-      </c>
-      <c r="C4" s="40">
-        <v>1</v>
-      </c>
-      <c r="D4" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="185" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="186">
-        <v>0</v>
-      </c>
-      <c r="C5" s="186">
-        <v>1</v>
-      </c>
-      <c r="D5" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="187" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="188">
-        <v>0</v>
-      </c>
-      <c r="C6" s="188">
-        <v>0.23</v>
-      </c>
-      <c r="D6" s="188">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="188">
-        <v>0</v>
-      </c>
-      <c r="C7" s="188">
-        <v>0.17</v>
-      </c>
-      <c r="D7" s="188">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="187" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="188">
-        <v>0</v>
-      </c>
-      <c r="C8" s="188">
-        <v>0.25</v>
-      </c>
-      <c r="D8" s="188">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="40">
-        <v>0</v>
-      </c>
-      <c r="C9" s="40">
-        <v>1</v>
-      </c>
-      <c r="D9" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="185" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="186">
-        <v>0</v>
-      </c>
-      <c r="C10" s="186">
-        <v>1</v>
-      </c>
-      <c r="D10" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="38">
-        <v>1</v>
-      </c>
-      <c r="C11" s="38">
-        <v>0</v>
-      </c>
-      <c r="D11" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="40">
-        <v>0</v>
-      </c>
-      <c r="C12" s="40">
-        <v>1</v>
-      </c>
-      <c r="D12" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="40">
-        <v>0</v>
-      </c>
-      <c r="C13" s="40">
-        <v>1</v>
-      </c>
-      <c r="D13" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="188">
-        <v>0</v>
-      </c>
-      <c r="C14" s="188">
-        <v>0.15</v>
-      </c>
-      <c r="D14" s="188">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="185" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="186">
-        <v>0</v>
-      </c>
-      <c r="C15" s="186">
-        <v>1</v>
-      </c>
-      <c r="D15" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="40">
-        <v>0</v>
-      </c>
-      <c r="C16" s="40">
-        <v>1</v>
-      </c>
-      <c r="D16" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="40">
-        <v>0</v>
-      </c>
-      <c r="C17" s="40">
-        <v>1</v>
-      </c>
-      <c r="D17" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="40">
-        <v>0</v>
-      </c>
-      <c r="C18" s="40">
-        <v>1</v>
-      </c>
-      <c r="D18" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="40">
-        <v>0</v>
-      </c>
-      <c r="C19" s="40">
-        <v>1</v>
-      </c>
-      <c r="D19" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="185" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="186">
-        <v>0</v>
-      </c>
-      <c r="C20" s="186">
-        <v>1</v>
-      </c>
-      <c r="D20" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="38">
-        <v>0</v>
-      </c>
-      <c r="C21" s="38">
-        <v>1</v>
-      </c>
-      <c r="D21" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="38">
-        <v>1</v>
-      </c>
-      <c r="C22" s="38">
-        <v>0</v>
-      </c>
-      <c r="D22" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
-        <v>99</v>
-      </c>
-      <c r="B23" s="38">
-        <v>1</v>
-      </c>
-      <c r="C23" s="38">
-        <v>0</v>
-      </c>
-      <c r="D23" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="177">
-        <v>88</v>
-      </c>
-      <c r="B24" s="188">
-        <v>0</v>
-      </c>
-      <c r="C24" s="188">
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="188">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="36">
-        <v>0</v>
-      </c>
-      <c r="C25" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="D25" s="36">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="38">
-        <v>0.6</v>
-      </c>
-      <c r="C26" s="38">
-        <v>0.4</v>
-      </c>
-      <c r="D26" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="189" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="190">
-        <v>0.12</v>
-      </c>
-      <c r="C27" s="190">
-        <v>0.88</v>
-      </c>
-      <c r="D27" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="187" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="188">
-        <v>0</v>
-      </c>
-      <c r="C28" s="188">
-        <v>0.06</v>
-      </c>
-      <c r="D28" s="188">
-        <v>0.94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
@@ -3114,7 +2705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
@@ -3981,7 +3572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
@@ -4848,7 +4439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -5324,7 +4915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
@@ -5841,7 +5432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -6178,7 +5769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -6541,7 +6132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D84"/>
   <sheetViews>
@@ -7732,7 +7323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -7879,6 +7470,987 @@
         <v>0</v>
       </c>
       <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:D69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="184" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="184" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="184" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="184" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="184" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="184" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="184" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="C32" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="183">
+        <v>99</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="183">
+        <v>88</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="183">
+        <v>77</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="183">
+        <v>66</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="183">
+        <v>55</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="183" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="183">
+        <v>44</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="183" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="183">
+        <v>33</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="183">
+        <v>22</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8467,987 +9039,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
-  <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:D69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="184" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="184" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="184" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="184" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="184" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="184" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="184" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="184" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="184" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="184" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="184" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="184" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="184" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="184" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="184" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="C21" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="184" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="184" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="184" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="184" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="184" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="C32" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.92</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="4">
-        <v>1</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="4">
-        <v>1</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="4">
-        <v>1</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="4">
-        <v>1</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="183">
-        <v>99</v>
-      </c>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="4">
-        <v>1</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="4">
-        <v>1</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="183">
-        <v>88</v>
-      </c>
-      <c r="B53" s="4">
-        <v>1</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0</v>
-      </c>
-      <c r="D53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="4">
-        <v>0</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="D54" s="4">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="4">
-        <v>1</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0</v>
-      </c>
-      <c r="D55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" s="4">
-        <v>1</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0</v>
-      </c>
-      <c r="D56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="183">
-        <v>77</v>
-      </c>
-      <c r="B57" s="4">
-        <v>1</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="4">
-        <v>0</v>
-      </c>
-      <c r="C58" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="D58" s="4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="4">
-        <v>1</v>
-      </c>
-      <c r="C59" s="4">
-        <v>0</v>
-      </c>
-      <c r="D59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="4">
-        <v>1</v>
-      </c>
-      <c r="C60" s="4">
-        <v>0</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="183">
-        <v>66</v>
-      </c>
-      <c r="B61" s="4">
-        <v>1</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0</v>
-      </c>
-      <c r="D61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="4">
-        <v>0</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="D62" s="4">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="4">
-        <v>1</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="183">
-        <v>55</v>
-      </c>
-      <c r="B64" s="4">
-        <v>1</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0</v>
-      </c>
-      <c r="D64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="183" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="4">
-        <v>0</v>
-      </c>
-      <c r="C65" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="D65" s="4">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="183">
-        <v>44</v>
-      </c>
-      <c r="B66" s="4">
-        <v>1</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0</v>
-      </c>
-      <c r="D66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="183" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="4">
-        <v>0</v>
-      </c>
-      <c r="C67" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="D67" s="4">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="183">
-        <v>33</v>
-      </c>
-      <c r="B68" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="C68" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="D68" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="183">
-        <v>22</v>
-      </c>
-      <c r="B69" s="4">
-        <v>1</v>
-      </c>
-      <c r="C69" s="4">
-        <v>0</v>
-      </c>
-      <c r="D69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10469,7 +10060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -11057,7 +10648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
@@ -11604,7 +11195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
@@ -12219,7 +11810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -12632,7 +12223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -12841,7 +12432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -13330,7 +12921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -13609,7 +13200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
@@ -14163,6 +13754,229 @@
       </c>
       <c r="D39" s="113">
         <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="184" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="190">
+        <v>1</v>
+      </c>
+      <c r="C2" s="190">
+        <v>0</v>
+      </c>
+      <c r="D2" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="189" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="190">
+        <v>1</v>
+      </c>
+      <c r="C3" s="190">
+        <v>0</v>
+      </c>
+      <c r="D3" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="190">
+        <v>1</v>
+      </c>
+      <c r="C4" s="190">
+        <v>0</v>
+      </c>
+      <c r="D4" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="187" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="188">
+        <v>0</v>
+      </c>
+      <c r="C5" s="188">
+        <v>0</v>
+      </c>
+      <c r="D5" s="188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="187" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="188">
+        <v>0</v>
+      </c>
+      <c r="C6" s="188">
+        <v>0</v>
+      </c>
+      <c r="D6" s="188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="187" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="188">
+        <v>0</v>
+      </c>
+      <c r="C7" s="188">
+        <v>0</v>
+      </c>
+      <c r="D7" s="188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="189" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="190">
+        <v>1</v>
+      </c>
+      <c r="C8" s="190">
+        <v>0</v>
+      </c>
+      <c r="D8" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="188">
+        <v>0</v>
+      </c>
+      <c r="C9" s="188">
+        <v>0</v>
+      </c>
+      <c r="D9" s="188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="189" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="190">
+        <v>1</v>
+      </c>
+      <c r="C10" s="190">
+        <v>0</v>
+      </c>
+      <c r="D10" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="189" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="190">
+        <v>1</v>
+      </c>
+      <c r="C11" s="190">
+        <v>0</v>
+      </c>
+      <c r="D11" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="189" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="190">
+        <v>1</v>
+      </c>
+      <c r="C12" s="190">
+        <v>0</v>
+      </c>
+      <c r="D12" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="191">
+        <v>99</v>
+      </c>
+      <c r="B13" s="190">
+        <v>1</v>
+      </c>
+      <c r="C13" s="190">
+        <v>0</v>
+      </c>
+      <c r="D13" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="191">
+        <v>88</v>
+      </c>
+      <c r="B14" s="190">
+        <v>1</v>
+      </c>
+      <c r="C14" s="190">
+        <v>0</v>
+      </c>
+      <c r="D14" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="191">
+        <v>77</v>
+      </c>
+      <c r="B15" s="190">
+        <v>1</v>
+      </c>
+      <c r="C15" s="190">
+        <v>0</v>
+      </c>
+      <c r="D15" s="190">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14425,229 +14239,6 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="184" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="184" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="184" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="190">
-        <v>1</v>
-      </c>
-      <c r="C2" s="190">
-        <v>0</v>
-      </c>
-      <c r="D2" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="189" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="190">
-        <v>1</v>
-      </c>
-      <c r="C3" s="190">
-        <v>0</v>
-      </c>
-      <c r="D3" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="189" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="190">
-        <v>1</v>
-      </c>
-      <c r="C4" s="190">
-        <v>0</v>
-      </c>
-      <c r="D4" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="187" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="188">
-        <v>0</v>
-      </c>
-      <c r="C5" s="188">
-        <v>0</v>
-      </c>
-      <c r="D5" s="188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="187" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="188">
-        <v>0</v>
-      </c>
-      <c r="C6" s="188">
-        <v>0</v>
-      </c>
-      <c r="D6" s="188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="188">
-        <v>0</v>
-      </c>
-      <c r="C7" s="188">
-        <v>0</v>
-      </c>
-      <c r="D7" s="188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="189" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="190">
-        <v>1</v>
-      </c>
-      <c r="C8" s="190">
-        <v>0</v>
-      </c>
-      <c r="D8" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="187" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="188">
-        <v>0</v>
-      </c>
-      <c r="C9" s="188">
-        <v>0</v>
-      </c>
-      <c r="D9" s="188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="189" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="190">
-        <v>1</v>
-      </c>
-      <c r="C10" s="190">
-        <v>0</v>
-      </c>
-      <c r="D10" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="189" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="190">
-        <v>1</v>
-      </c>
-      <c r="C11" s="190">
-        <v>0</v>
-      </c>
-      <c r="D11" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="189" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="190">
-        <v>1</v>
-      </c>
-      <c r="C12" s="190">
-        <v>0</v>
-      </c>
-      <c r="D12" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="191">
-        <v>99</v>
-      </c>
-      <c r="B13" s="190">
-        <v>1</v>
-      </c>
-      <c r="C13" s="190">
-        <v>0</v>
-      </c>
-      <c r="D13" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="191">
-        <v>88</v>
-      </c>
-      <c r="B14" s="190">
-        <v>1</v>
-      </c>
-      <c r="C14" s="190">
-        <v>0</v>
-      </c>
-      <c r="D14" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="191">
-        <v>77</v>
-      </c>
-      <c r="B15" s="190">
-        <v>1</v>
-      </c>
-      <c r="C15" s="190">
-        <v>0</v>
-      </c>
-      <c r="D15" s="190">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
@@ -16369,780 +15960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="184" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="184" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="184" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="183" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="183" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="183" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="183" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="183" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="183" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="183" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="183" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="183" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="183" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="183" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="183" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="183" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="183" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="183" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="183" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="183" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="183" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="183" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="183" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="183" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="183" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="183" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="183" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="183" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="183" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="183" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="183" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="183" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="183" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="183" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="183" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="183" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="183" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="183" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="183">
-        <v>99</v>
-      </c>
-      <c r="B41" s="4">
-        <v>0</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="183" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="183" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="183" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="4">
-        <v>1</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="183">
-        <v>88</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-      <c r="C45" s="4">
-        <v>1</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="183" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="4">
-        <v>1</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="183" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="4">
-        <v>1</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="183">
-        <v>77</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0</v>
-      </c>
-      <c r="C48" s="4">
-        <v>1</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="183" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="4">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="183">
-        <v>66</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="183" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="4">
-        <v>1</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="183">
-        <v>55</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0</v>
-      </c>
-      <c r="C52" s="4">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="183">
-        <v>44</v>
-      </c>
-      <c r="B53" s="4">
-        <v>1</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0</v>
-      </c>
-      <c r="D53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="183">
-        <v>22</v>
-      </c>
-      <c r="B54" s="4">
-        <v>1</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0</v>
-      </c>
-      <c r="D54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
@@ -17735,7 +16553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -17848,7 +16666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -18057,7 +16875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
@@ -19178,7 +17996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
@@ -20299,7 +19117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
@@ -21516,7 +20334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -21857,6 +20675,620 @@
         <v>0</v>
       </c>
       <c r="D24" s="65">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="178" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186">
+        <v>0</v>
+      </c>
+      <c r="C2" s="186">
+        <v>1</v>
+      </c>
+      <c r="D2" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="187" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="188">
+        <v>0</v>
+      </c>
+      <c r="C3" s="188">
+        <v>0.61</v>
+      </c>
+      <c r="D3" s="188">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="187" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="188">
+        <v>0</v>
+      </c>
+      <c r="C4" s="188">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="188">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="185" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="186">
+        <v>0</v>
+      </c>
+      <c r="C5" s="186">
+        <v>1</v>
+      </c>
+      <c r="D5" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="188">
+        <v>0</v>
+      </c>
+      <c r="C6" s="188">
+        <v>0.04</v>
+      </c>
+      <c r="D6" s="188">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="187" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="188">
+        <v>0</v>
+      </c>
+      <c r="C7" s="188">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="188">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="187" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="188">
+        <v>0</v>
+      </c>
+      <c r="C8" s="188">
+        <v>0.04</v>
+      </c>
+      <c r="D8" s="188">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="188">
+        <v>0</v>
+      </c>
+      <c r="C9" s="188">
+        <v>0.77</v>
+      </c>
+      <c r="D9" s="188">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="186">
+        <v>0</v>
+      </c>
+      <c r="C10" s="186">
+        <v>1</v>
+      </c>
+      <c r="D10" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="185" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="186">
+        <v>0</v>
+      </c>
+      <c r="C11" s="186">
+        <v>1</v>
+      </c>
+      <c r="D11" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="185" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="186">
+        <v>0</v>
+      </c>
+      <c r="C12" s="186">
+        <v>1</v>
+      </c>
+      <c r="D12" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="185" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="186">
+        <v>0</v>
+      </c>
+      <c r="C13" s="186">
+        <v>1</v>
+      </c>
+      <c r="D13" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="187" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="188">
+        <v>0</v>
+      </c>
+      <c r="C14" s="188">
+        <v>0.78</v>
+      </c>
+      <c r="D14" s="188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="186">
+        <v>0</v>
+      </c>
+      <c r="C15" s="186">
+        <v>1</v>
+      </c>
+      <c r="D15" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="189" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="190">
+        <v>0.16</v>
+      </c>
+      <c r="C16" s="190">
+        <v>0.84</v>
+      </c>
+      <c r="D16" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="185" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="186">
+        <v>0</v>
+      </c>
+      <c r="C17" s="186">
+        <v>1</v>
+      </c>
+      <c r="D17" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="189" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="190">
+        <v>0.08</v>
+      </c>
+      <c r="C18" s="190">
+        <v>0.92</v>
+      </c>
+      <c r="D18" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="189" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="190">
+        <v>0.72</v>
+      </c>
+      <c r="C19" s="190">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D19" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="191">
+        <v>99</v>
+      </c>
+      <c r="B20" s="190">
+        <v>1</v>
+      </c>
+      <c r="C20" s="190">
+        <v>0</v>
+      </c>
+      <c r="D20" s="190">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="178" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="174">
+        <v>0</v>
+      </c>
+      <c r="C2" s="174">
+        <v>1</v>
+      </c>
+      <c r="D2" s="174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="181" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="182">
+        <v>0</v>
+      </c>
+      <c r="C3" s="182">
+        <v>0.76</v>
+      </c>
+      <c r="D3" s="182">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="182">
+        <v>0</v>
+      </c>
+      <c r="C4" s="182">
+        <v>0.83</v>
+      </c>
+      <c r="D4" s="182">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="169" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="174">
+        <v>0</v>
+      </c>
+      <c r="C5" s="174">
+        <v>1</v>
+      </c>
+      <c r="D5" s="174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="181" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="182">
+        <v>0</v>
+      </c>
+      <c r="C6" s="182">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="182">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="181" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="182">
+        <v>0</v>
+      </c>
+      <c r="C7" s="182">
+        <v>0.11</v>
+      </c>
+      <c r="D7" s="182">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="181" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="182">
+        <v>0</v>
+      </c>
+      <c r="C8" s="182">
+        <v>0.11</v>
+      </c>
+      <c r="D8" s="182">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="182">
+        <v>0</v>
+      </c>
+      <c r="C9" s="182">
+        <v>0.04</v>
+      </c>
+      <c r="D9" s="182">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="182">
+        <v>0</v>
+      </c>
+      <c r="C10" s="182">
+        <v>0.89</v>
+      </c>
+      <c r="D10" s="182">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="174">
+        <v>0</v>
+      </c>
+      <c r="C11" s="174">
+        <v>1</v>
+      </c>
+      <c r="D11" s="174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="174">
+        <v>0</v>
+      </c>
+      <c r="C12" s="174">
+        <v>1</v>
+      </c>
+      <c r="D12" s="174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="169" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="174">
+        <v>0</v>
+      </c>
+      <c r="C13" s="174">
+        <v>1</v>
+      </c>
+      <c r="D13" s="174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="174">
+        <v>0</v>
+      </c>
+      <c r="C14" s="174">
+        <v>1</v>
+      </c>
+      <c r="D14" s="174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="182">
+        <v>0</v>
+      </c>
+      <c r="C15" s="182">
+        <v>0.04</v>
+      </c>
+      <c r="D15" s="182">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="181" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="182">
+        <v>0</v>
+      </c>
+      <c r="C16" s="182">
+        <v>0.91</v>
+      </c>
+      <c r="D16" s="182">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="174">
+        <v>0</v>
+      </c>
+      <c r="C17" s="174">
+        <v>1</v>
+      </c>
+      <c r="D17" s="174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="179" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="180">
+        <v>0.06</v>
+      </c>
+      <c r="C18" s="180">
+        <v>0.94</v>
+      </c>
+      <c r="D18" s="180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="169" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="174">
+        <v>0</v>
+      </c>
+      <c r="C19" s="174">
+        <v>1</v>
+      </c>
+      <c r="D19" s="174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="174">
+        <v>0</v>
+      </c>
+      <c r="C20" s="174">
+        <v>1</v>
+      </c>
+      <c r="D20" s="174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="179" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="180">
+        <v>0.32</v>
+      </c>
+      <c r="C21" s="180">
+        <v>0.68</v>
+      </c>
+      <c r="D21" s="180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="176">
+        <v>99</v>
+      </c>
+      <c r="B22" s="180">
+        <v>1</v>
+      </c>
+      <c r="C22" s="180">
+        <v>0</v>
+      </c>
+      <c r="D22" s="180">
         <v>0</v>
       </c>
     </row>
@@ -21952,620 +21384,6 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="178" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="178" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="178" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="186">
-        <v>0</v>
-      </c>
-      <c r="C2" s="186">
-        <v>1</v>
-      </c>
-      <c r="D2" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="187" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="188">
-        <v>0</v>
-      </c>
-      <c r="C3" s="188">
-        <v>0.61</v>
-      </c>
-      <c r="D3" s="188">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="187" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="188">
-        <v>0</v>
-      </c>
-      <c r="C4" s="188">
-        <v>0.75</v>
-      </c>
-      <c r="D4" s="188">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="185" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="186">
-        <v>0</v>
-      </c>
-      <c r="C5" s="186">
-        <v>1</v>
-      </c>
-      <c r="D5" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="187" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="188">
-        <v>0</v>
-      </c>
-      <c r="C6" s="188">
-        <v>0.04</v>
-      </c>
-      <c r="D6" s="188">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="188">
-        <v>0</v>
-      </c>
-      <c r="C7" s="188">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="188">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="187" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="188">
-        <v>0</v>
-      </c>
-      <c r="C8" s="188">
-        <v>0.04</v>
-      </c>
-      <c r="D8" s="188">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="187" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="188">
-        <v>0</v>
-      </c>
-      <c r="C9" s="188">
-        <v>0.77</v>
-      </c>
-      <c r="D9" s="188">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="185" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="186">
-        <v>0</v>
-      </c>
-      <c r="C10" s="186">
-        <v>1</v>
-      </c>
-      <c r="D10" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="185" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="186">
-        <v>0</v>
-      </c>
-      <c r="C11" s="186">
-        <v>1</v>
-      </c>
-      <c r="D11" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="185" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="186">
-        <v>0</v>
-      </c>
-      <c r="C12" s="186">
-        <v>1</v>
-      </c>
-      <c r="D12" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="185" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="186">
-        <v>0</v>
-      </c>
-      <c r="C13" s="186">
-        <v>1</v>
-      </c>
-      <c r="D13" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="187" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="188">
-        <v>0</v>
-      </c>
-      <c r="C14" s="188">
-        <v>0.78</v>
-      </c>
-      <c r="D14" s="188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="185" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="186">
-        <v>0</v>
-      </c>
-      <c r="C15" s="186">
-        <v>1</v>
-      </c>
-      <c r="D15" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="189" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="190">
-        <v>0.16</v>
-      </c>
-      <c r="C16" s="190">
-        <v>0.84</v>
-      </c>
-      <c r="D16" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="185" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="186">
-        <v>0</v>
-      </c>
-      <c r="C17" s="186">
-        <v>1</v>
-      </c>
-      <c r="D17" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="189" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="190">
-        <v>0.08</v>
-      </c>
-      <c r="C18" s="190">
-        <v>0.92</v>
-      </c>
-      <c r="D18" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="189" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="190">
-        <v>0.72</v>
-      </c>
-      <c r="C19" s="190">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D19" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="191">
-        <v>99</v>
-      </c>
-      <c r="B20" s="190">
-        <v>1</v>
-      </c>
-      <c r="C20" s="190">
-        <v>0</v>
-      </c>
-      <c r="D20" s="190">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="178" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="178" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="178" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="174">
-        <v>0</v>
-      </c>
-      <c r="C2" s="174">
-        <v>1</v>
-      </c>
-      <c r="D2" s="174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="181" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="182">
-        <v>0</v>
-      </c>
-      <c r="C3" s="182">
-        <v>0.76</v>
-      </c>
-      <c r="D3" s="182">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="181" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="182">
-        <v>0</v>
-      </c>
-      <c r="C4" s="182">
-        <v>0.83</v>
-      </c>
-      <c r="D4" s="182">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="174">
-        <v>0</v>
-      </c>
-      <c r="C5" s="174">
-        <v>1</v>
-      </c>
-      <c r="D5" s="174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="181" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="182">
-        <v>0</v>
-      </c>
-      <c r="C6" s="182">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="182">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="181" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="182">
-        <v>0</v>
-      </c>
-      <c r="C7" s="182">
-        <v>0.11</v>
-      </c>
-      <c r="D7" s="182">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="181" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="182">
-        <v>0</v>
-      </c>
-      <c r="C8" s="182">
-        <v>0.11</v>
-      </c>
-      <c r="D8" s="182">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="181" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="182">
-        <v>0</v>
-      </c>
-      <c r="C9" s="182">
-        <v>0.04</v>
-      </c>
-      <c r="D9" s="182">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="181" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="182">
-        <v>0</v>
-      </c>
-      <c r="C10" s="182">
-        <v>0.89</v>
-      </c>
-      <c r="D10" s="182">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="169" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="174">
-        <v>0</v>
-      </c>
-      <c r="C11" s="174">
-        <v>1</v>
-      </c>
-      <c r="D11" s="174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="169" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="174">
-        <v>0</v>
-      </c>
-      <c r="C12" s="174">
-        <v>1</v>
-      </c>
-      <c r="D12" s="174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="169" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="174">
-        <v>0</v>
-      </c>
-      <c r="C13" s="174">
-        <v>1</v>
-      </c>
-      <c r="D13" s="174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="169" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="174">
-        <v>0</v>
-      </c>
-      <c r="C14" s="174">
-        <v>1</v>
-      </c>
-      <c r="D14" s="174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="181" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="182">
-        <v>0</v>
-      </c>
-      <c r="C15" s="182">
-        <v>0.04</v>
-      </c>
-      <c r="D15" s="182">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="181" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="182">
-        <v>0</v>
-      </c>
-      <c r="C16" s="182">
-        <v>0.91</v>
-      </c>
-      <c r="D16" s="182">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="169" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="174">
-        <v>0</v>
-      </c>
-      <c r="C17" s="174">
-        <v>1</v>
-      </c>
-      <c r="D17" s="174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="179" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="180">
-        <v>0.06</v>
-      </c>
-      <c r="C18" s="180">
-        <v>0.94</v>
-      </c>
-      <c r="D18" s="180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="169" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="174">
-        <v>0</v>
-      </c>
-      <c r="C19" s="174">
-        <v>1</v>
-      </c>
-      <c r="D19" s="174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="169" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="174">
-        <v>0</v>
-      </c>
-      <c r="C20" s="174">
-        <v>1</v>
-      </c>
-      <c r="D20" s="174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="179" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="180">
-        <v>0.32</v>
-      </c>
-      <c r="C21" s="180">
-        <v>0.68</v>
-      </c>
-      <c r="D21" s="180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="176">
-        <v>99</v>
-      </c>
-      <c r="B22" s="180">
-        <v>1</v>
-      </c>
-      <c r="C22" s="180">
-        <v>0</v>
-      </c>
-      <c r="D22" s="180">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22899,7 +21717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -23082,7 +21900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -23501,7 +22319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -23950,7 +22768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -24383,7 +23201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -24566,7 +23384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
@@ -25099,7 +23917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -25238,456 +24056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="184" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="184" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="184" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="183" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="183" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="183" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="183" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="183" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="183" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="183" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="183" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="183" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="183" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="183" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="183" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="183" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="183" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="183" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="183" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="183" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="C21" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="183" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="183" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="183" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="183" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="183" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="183">
-        <v>99</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="183">
-        <v>88</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="183">
-        <v>77</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="C29" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="183">
-        <v>66</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="183">
-        <v>55</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
@@ -26248,7 +24617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D170"/>
   <sheetViews>
@@ -28643,7 +27012,667 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="186">
+        <v>0</v>
+      </c>
+      <c r="C9" s="186">
+        <v>1</v>
+      </c>
+      <c r="D9" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="88">
+        <v>0</v>
+      </c>
+      <c r="C15" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="D15" s="88">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="185" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="186">
+        <v>0</v>
+      </c>
+      <c r="C16" s="186">
+        <v>1</v>
+      </c>
+      <c r="D16" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="12">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0</v>
+      </c>
+      <c r="C32" s="12">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="12">
+        <v>0</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="12">
+        <v>0</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="187" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="188">
+        <v>0</v>
+      </c>
+      <c r="C37" s="188">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D37" s="188">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="188">
+        <v>0</v>
+      </c>
+      <c r="C38" s="188">
+        <v>0.26</v>
+      </c>
+      <c r="D38" s="188">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="185" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="186">
+        <v>0</v>
+      </c>
+      <c r="C39" s="186">
+        <v>1</v>
+      </c>
+      <c r="D39" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="12">
+        <v>0</v>
+      </c>
+      <c r="C40" s="12">
+        <v>1</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>99</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0</v>
+      </c>
+      <c r="C41" s="12">
+        <v>1</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="159" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="186">
+        <v>0</v>
+      </c>
+      <c r="C42" s="186">
+        <v>1</v>
+      </c>
+      <c r="D42" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>88</v>
+      </c>
+      <c r="B43" s="12">
+        <v>0</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>77</v>
+      </c>
+      <c r="B44" s="12">
+        <v>0</v>
+      </c>
+      <c r="C44" s="12">
+        <v>1</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>66</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0</v>
+      </c>
+      <c r="C45" s="12">
+        <v>1</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>55</v>
+      </c>
+      <c r="B46" s="12">
+        <v>0</v>
+      </c>
+      <c r="C46" s="12">
+        <v>1</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D170"/>
   <sheetViews>
@@ -31038,7 +30067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -31291,7 +30320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D170"/>
   <sheetViews>
@@ -33684,7 +32713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D169"/>
   <sheetViews>
@@ -36065,7 +35094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
@@ -36806,7 +35835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -37309,7 +36338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -37798,7 +36827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
@@ -38453,667 +37482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="12">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="185" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="186">
-        <v>0</v>
-      </c>
-      <c r="C9" s="186">
-        <v>1</v>
-      </c>
-      <c r="D9" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12">
-        <v>0</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="88">
-        <v>0</v>
-      </c>
-      <c r="C15" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="D15" s="88">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="185" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="186">
-        <v>0</v>
-      </c>
-      <c r="C16" s="186">
-        <v>1</v>
-      </c>
-      <c r="D16" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="12">
-        <v>0</v>
-      </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="12">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="12">
-        <v>0</v>
-      </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="12">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="12">
-        <v>0</v>
-      </c>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="12">
-        <v>0</v>
-      </c>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="12">
-        <v>0</v>
-      </c>
-      <c r="C24" s="12">
-        <v>1</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="12">
-        <v>0</v>
-      </c>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="12">
-        <v>0</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="12">
-        <v>0</v>
-      </c>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="12">
-        <v>0</v>
-      </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="12">
-        <v>0</v>
-      </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="12">
-        <v>0</v>
-      </c>
-      <c r="C30" s="12">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="12">
-        <v>0</v>
-      </c>
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="12">
-        <v>0</v>
-      </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="12">
-        <v>0</v>
-      </c>
-      <c r="C33" s="12">
-        <v>1</v>
-      </c>
-      <c r="D33" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="12">
-        <v>0</v>
-      </c>
-      <c r="C34" s="12">
-        <v>1</v>
-      </c>
-      <c r="D34" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="12">
-        <v>0</v>
-      </c>
-      <c r="C35" s="12">
-        <v>1</v>
-      </c>
-      <c r="D35" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="12">
-        <v>0</v>
-      </c>
-      <c r="C36" s="12">
-        <v>1</v>
-      </c>
-      <c r="D36" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="187" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="188">
-        <v>0</v>
-      </c>
-      <c r="C37" s="188">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D37" s="188">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="188">
-        <v>0</v>
-      </c>
-      <c r="C38" s="188">
-        <v>0.26</v>
-      </c>
-      <c r="D38" s="188">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="185" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="186">
-        <v>0</v>
-      </c>
-      <c r="C39" s="186">
-        <v>1</v>
-      </c>
-      <c r="D39" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="12">
-        <v>0</v>
-      </c>
-      <c r="C40" s="12">
-        <v>1</v>
-      </c>
-      <c r="D40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>99</v>
-      </c>
-      <c r="B41" s="12">
-        <v>0</v>
-      </c>
-      <c r="C41" s="12">
-        <v>1</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="159" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="186">
-        <v>0</v>
-      </c>
-      <c r="C42" s="186">
-        <v>1</v>
-      </c>
-      <c r="D42" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>88</v>
-      </c>
-      <c r="B43" s="12">
-        <v>0</v>
-      </c>
-      <c r="C43" s="12">
-        <v>1</v>
-      </c>
-      <c r="D43" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>77</v>
-      </c>
-      <c r="B44" s="12">
-        <v>0</v>
-      </c>
-      <c r="C44" s="12">
-        <v>1</v>
-      </c>
-      <c r="D44" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>66</v>
-      </c>
-      <c r="B45" s="12">
-        <v>0</v>
-      </c>
-      <c r="C45" s="12">
-        <v>1</v>
-      </c>
-      <c r="D45" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
-        <v>55</v>
-      </c>
-      <c r="B46" s="12">
-        <v>0</v>
-      </c>
-      <c r="C46" s="12">
-        <v>1</v>
-      </c>
-      <c r="D46" s="12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
@@ -39924,7 +38293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
@@ -41069,7 +39438,330 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="188">
+        <v>0</v>
+      </c>
+      <c r="C2" s="188">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D2" s="188">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="177" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="188">
+        <v>0</v>
+      </c>
+      <c r="C3" s="188">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="188">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="177" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="188">
+        <v>0</v>
+      </c>
+      <c r="C4" s="188">
+        <v>0.83</v>
+      </c>
+      <c r="D4" s="188">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="188">
+        <v>0</v>
+      </c>
+      <c r="C5" s="188">
+        <v>0.61</v>
+      </c>
+      <c r="D5" s="188">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="188">
+        <v>0</v>
+      </c>
+      <c r="C6" s="188">
+        <v>0.37</v>
+      </c>
+      <c r="D6" s="188">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="190">
+        <v>0.41</v>
+      </c>
+      <c r="C7" s="190">
+        <v>0.59</v>
+      </c>
+      <c r="D7" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="191" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="190">
+        <v>0.66</v>
+      </c>
+      <c r="C8" s="190">
+        <v>0.34</v>
+      </c>
+      <c r="D8" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="191" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="190">
+        <v>0.86</v>
+      </c>
+      <c r="C9" s="190">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D9" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="186">
+        <v>0</v>
+      </c>
+      <c r="C10" s="186">
+        <v>1</v>
+      </c>
+      <c r="D10" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="186">
+        <v>0</v>
+      </c>
+      <c r="C11" s="186">
+        <v>1</v>
+      </c>
+      <c r="D11" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="191" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="190">
+        <v>0.24</v>
+      </c>
+      <c r="C12" s="190">
+        <v>0.76</v>
+      </c>
+      <c r="D12" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="159" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="186">
+        <v>0</v>
+      </c>
+      <c r="C13" s="186">
+        <v>1</v>
+      </c>
+      <c r="D13" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="159" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="186">
+        <v>0</v>
+      </c>
+      <c r="C14" s="186">
+        <v>1</v>
+      </c>
+      <c r="D14" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="159" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="186">
+        <v>0</v>
+      </c>
+      <c r="C15" s="186">
+        <v>1</v>
+      </c>
+      <c r="D15" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="188">
+        <v>0</v>
+      </c>
+      <c r="C16" s="188">
+        <v>0.24</v>
+      </c>
+      <c r="D16" s="188">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="159" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="186">
+        <v>0</v>
+      </c>
+      <c r="C17" s="186">
+        <v>1</v>
+      </c>
+      <c r="D17" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="191" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="190">
+        <v>1</v>
+      </c>
+      <c r="C18" s="190">
+        <v>0</v>
+      </c>
+      <c r="D18" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="193" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="190">
+        <v>0.41</v>
+      </c>
+      <c r="C19" s="190">
+        <v>0.59</v>
+      </c>
+      <c r="D19" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="191">
+        <v>99</v>
+      </c>
+      <c r="B20" s="190">
+        <v>0.92</v>
+      </c>
+      <c r="C20" s="190">
+        <v>0.08</v>
+      </c>
+      <c r="D20" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="191">
+        <v>88</v>
+      </c>
+      <c r="B21" s="190">
+        <v>0.97</v>
+      </c>
+      <c r="C21" s="190">
+        <v>0.03</v>
+      </c>
+      <c r="D21" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="191">
+        <v>77</v>
+      </c>
+      <c r="B22" s="190">
+        <v>1</v>
+      </c>
+      <c r="C22" s="190">
+        <v>0</v>
+      </c>
+      <c r="D22" s="190">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D67"/>
   <sheetViews>
@@ -42020,7 +40712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
@@ -43184,13 +41876,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -44095,12 +42785,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:D54"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45076,7 +43766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
@@ -46440,7 +45130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
@@ -47517,7 +46207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D131"/>
   <sheetViews>
@@ -49366,11 +48056,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -49391,330 +48081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="184" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="184" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="184" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="188">
-        <v>0</v>
-      </c>
-      <c r="C2" s="188">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D2" s="188">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="177" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="188">
-        <v>0</v>
-      </c>
-      <c r="C3" s="188">
-        <v>0.16</v>
-      </c>
-      <c r="D3" s="188">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="177" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="188">
-        <v>0</v>
-      </c>
-      <c r="C4" s="188">
-        <v>0.83</v>
-      </c>
-      <c r="D4" s="188">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="177" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="188">
-        <v>0</v>
-      </c>
-      <c r="C5" s="188">
-        <v>0.61</v>
-      </c>
-      <c r="D5" s="188">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="177" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="188">
-        <v>0</v>
-      </c>
-      <c r="C6" s="188">
-        <v>0.37</v>
-      </c>
-      <c r="D6" s="188">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="191" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="190">
-        <v>0.41</v>
-      </c>
-      <c r="C7" s="190">
-        <v>0.59</v>
-      </c>
-      <c r="D7" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="191" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="190">
-        <v>0.66</v>
-      </c>
-      <c r="C8" s="190">
-        <v>0.34</v>
-      </c>
-      <c r="D8" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="191" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="190">
-        <v>0.86</v>
-      </c>
-      <c r="C9" s="190">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D9" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="159" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="186">
-        <v>0</v>
-      </c>
-      <c r="C10" s="186">
-        <v>1</v>
-      </c>
-      <c r="D10" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="186">
-        <v>0</v>
-      </c>
-      <c r="C11" s="186">
-        <v>1</v>
-      </c>
-      <c r="D11" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="191" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="190">
-        <v>0.24</v>
-      </c>
-      <c r="C12" s="190">
-        <v>0.76</v>
-      </c>
-      <c r="D12" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="159" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="186">
-        <v>0</v>
-      </c>
-      <c r="C13" s="186">
-        <v>1</v>
-      </c>
-      <c r="D13" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="159" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="186">
-        <v>0</v>
-      </c>
-      <c r="C14" s="186">
-        <v>1</v>
-      </c>
-      <c r="D14" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="159" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="186">
-        <v>0</v>
-      </c>
-      <c r="C15" s="186">
-        <v>1</v>
-      </c>
-      <c r="D15" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="177" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="188">
-        <v>0</v>
-      </c>
-      <c r="C16" s="188">
-        <v>0.24</v>
-      </c>
-      <c r="D16" s="188">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="159" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="186">
-        <v>0</v>
-      </c>
-      <c r="C17" s="186">
-        <v>1</v>
-      </c>
-      <c r="D17" s="186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="191" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="190">
-        <v>1</v>
-      </c>
-      <c r="C18" s="190">
-        <v>0</v>
-      </c>
-      <c r="D18" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="193" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="190">
-        <v>0.41</v>
-      </c>
-      <c r="C19" s="190">
-        <v>0.59</v>
-      </c>
-      <c r="D19" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="191">
-        <v>99</v>
-      </c>
-      <c r="B20" s="190">
-        <v>0.92</v>
-      </c>
-      <c r="C20" s="190">
-        <v>0.08</v>
-      </c>
-      <c r="D20" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="191">
-        <v>88</v>
-      </c>
-      <c r="B21" s="190">
-        <v>0.97</v>
-      </c>
-      <c r="C21" s="190">
-        <v>0.03</v>
-      </c>
-      <c r="D21" s="190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="191">
-        <v>77</v>
-      </c>
-      <c r="B22" s="190">
-        <v>1</v>
-      </c>
-      <c r="C22" s="190">
-        <v>0</v>
-      </c>
-      <c r="D22" s="190">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
@@ -50289,12 +48656,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50416,7 +48783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
@@ -50963,7 +49330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -51366,4 +49733,411 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186">
+        <v>0</v>
+      </c>
+      <c r="C2" s="186">
+        <v>1</v>
+      </c>
+      <c r="D2" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40">
+        <v>0</v>
+      </c>
+      <c r="C3" s="40">
+        <v>1</v>
+      </c>
+      <c r="D3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="40">
+        <v>0</v>
+      </c>
+      <c r="C4" s="40">
+        <v>1</v>
+      </c>
+      <c r="D4" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="185" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="186">
+        <v>0</v>
+      </c>
+      <c r="C5" s="186">
+        <v>1</v>
+      </c>
+      <c r="D5" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="188">
+        <v>0</v>
+      </c>
+      <c r="C6" s="188">
+        <v>0.23</v>
+      </c>
+      <c r="D6" s="188">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="187" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="188">
+        <v>0</v>
+      </c>
+      <c r="C7" s="188">
+        <v>0.17</v>
+      </c>
+      <c r="D7" s="188">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="188">
+        <v>0</v>
+      </c>
+      <c r="C8" s="188">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="188">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="40">
+        <v>0</v>
+      </c>
+      <c r="C9" s="40">
+        <v>1</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="186">
+        <v>0</v>
+      </c>
+      <c r="C10" s="186">
+        <v>1</v>
+      </c>
+      <c r="D10" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="38">
+        <v>1</v>
+      </c>
+      <c r="C11" s="38">
+        <v>0</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="40">
+        <v>0</v>
+      </c>
+      <c r="C12" s="40">
+        <v>1</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="40">
+        <v>0</v>
+      </c>
+      <c r="C13" s="40">
+        <v>1</v>
+      </c>
+      <c r="D13" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="187" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="188">
+        <v>0</v>
+      </c>
+      <c r="C14" s="188">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="188">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="186">
+        <v>0</v>
+      </c>
+      <c r="C15" s="186">
+        <v>1</v>
+      </c>
+      <c r="D15" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="40">
+        <v>0</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1</v>
+      </c>
+      <c r="D16" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="40">
+        <v>0</v>
+      </c>
+      <c r="C17" s="40">
+        <v>1</v>
+      </c>
+      <c r="D17" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="40">
+        <v>0</v>
+      </c>
+      <c r="C18" s="40">
+        <v>1</v>
+      </c>
+      <c r="D18" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="40">
+        <v>0</v>
+      </c>
+      <c r="C19" s="40">
+        <v>1</v>
+      </c>
+      <c r="D19" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="185" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="186">
+        <v>0</v>
+      </c>
+      <c r="C20" s="186">
+        <v>1</v>
+      </c>
+      <c r="D20" s="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="38">
+        <v>0</v>
+      </c>
+      <c r="C21" s="38">
+        <v>1</v>
+      </c>
+      <c r="D21" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="38">
+        <v>1</v>
+      </c>
+      <c r="C22" s="38">
+        <v>0</v>
+      </c>
+      <c r="D22" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>99</v>
+      </c>
+      <c r="B23" s="38">
+        <v>1</v>
+      </c>
+      <c r="C23" s="38">
+        <v>0</v>
+      </c>
+      <c r="D23" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="177">
+        <v>88</v>
+      </c>
+      <c r="B24" s="188">
+        <v>0</v>
+      </c>
+      <c r="C24" s="188">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="188">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="36">
+        <v>0</v>
+      </c>
+      <c r="C25" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="36">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="C26" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="D26" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="189" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="190">
+        <v>0.12</v>
+      </c>
+      <c r="C27" s="190">
+        <v>0.88</v>
+      </c>
+      <c r="D27" s="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="187" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="188">
+        <v>0</v>
+      </c>
+      <c r="C28" s="188">
+        <v>0.06</v>
+      </c>
+      <c r="D28" s="188">
+        <v>0.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/decisionmaker/preflop.xlsx
+++ b/decisionmaker/preflop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10830" firstSheet="18" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10830" firstSheet="58" activeTab="70"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="8" r:id="rId1"/>
@@ -71,20 +71,22 @@
     <sheet name="6R2C4" sheetId="58" r:id="rId62"/>
     <sheet name="6R2C5" sheetId="60" r:id="rId63"/>
     <sheet name="6R3" sheetId="26" r:id="rId64"/>
-    <sheet name="6R3C4C5" sheetId="80" r:id="rId65"/>
-    <sheet name="6R3C5" sheetId="57" r:id="rId66"/>
-    <sheet name="6R4" sheetId="28" r:id="rId67"/>
-    <sheet name="6R5" sheetId="29" r:id="rId68"/>
-    <sheet name="Info" sheetId="55" r:id="rId69"/>
-    <sheet name="R1R2" sheetId="32" r:id="rId70"/>
-    <sheet name="R1R2R1A2" sheetId="33" r:id="rId71"/>
+    <sheet name="6R3C4" sheetId="86" r:id="rId65"/>
+    <sheet name="6R3C4C5" sheetId="80" r:id="rId66"/>
+    <sheet name="6R3C5" sheetId="57" r:id="rId67"/>
+    <sheet name="6R4" sheetId="28" r:id="rId68"/>
+    <sheet name="6R4C5" sheetId="87" r:id="rId69"/>
+    <sheet name="6R5" sheetId="29" r:id="rId70"/>
+    <sheet name="Info" sheetId="55" r:id="rId71"/>
+    <sheet name="R1R2" sheetId="32" r:id="rId72"/>
+    <sheet name="R1R2R1A2" sheetId="33" r:id="rId73"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="175">
   <si>
     <t>A2s</t>
   </si>
@@ -608,7 +610,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.45</t>
+    <t>1.47</t>
   </si>
 </sst>
 </file>
@@ -38457,7 +38459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -44097,10 +44099,10 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:D54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44166,10 +44168,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -44180,10 +44182,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="4">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -44194,10 +44196,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="4">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -44208,10 +44210,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="4">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -44222,10 +44224,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -44236,10 +44238,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C10" s="4">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -44303,7 +44305,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="183" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -44317,7 +44319,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="183" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -44331,7 +44333,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="183" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -44345,7 +44347,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="183" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -44359,7 +44361,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="183" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -44373,7 +44375,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -44387,7 +44389,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -44401,13 +44403,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="183" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B22" s="4">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="C22" s="4">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -44415,13 +44417,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="183" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -44429,7 +44431,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="183" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -44443,7 +44445,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -44457,7 +44459,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
@@ -44471,13 +44473,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="183" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -44485,13 +44487,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="183" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -44499,13 +44501,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="183" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -44513,13 +44515,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="183" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B30" s="4">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C30" s="4">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -44527,13 +44529,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="183" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B31" s="4">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C31" s="4">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -44541,7 +44543,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="183" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -44555,7 +44557,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="183" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -44569,13 +44571,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="183" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B34" s="4">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="C34" s="4">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -44583,13 +44585,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="183" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -44597,13 +44599,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="183" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -44611,13 +44613,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="183" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -44625,13 +44627,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="183" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -44639,7 +44641,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="183" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -44653,7 +44655,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -44667,13 +44669,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="183" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B41" s="4">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="C41" s="4">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
@@ -44681,13 +44683,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="183" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
@@ -44695,13 +44697,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="183" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B43" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
@@ -44709,13 +44711,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="183" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -44723,13 +44725,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="183" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B45" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
@@ -44737,13 +44739,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="183" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B46" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
@@ -44751,27 +44753,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="183" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="183">
-        <v>99</v>
+      <c r="A48" s="183" t="s">
+        <v>57</v>
       </c>
       <c r="B48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
@@ -44779,7 +44781,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="183" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -44793,13 +44795,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="183" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -44807,7 +44809,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" s="4">
         <v>0</v>
@@ -44821,7 +44823,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="183">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B52" s="4">
         <v>0</v>
@@ -44835,7 +44837,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="183" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B53" s="4">
         <v>1</v>
@@ -44849,13 +44851,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="183" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -44863,7 +44865,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="183" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B55" s="4">
         <v>0</v>
@@ -44877,7 +44879,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="183">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B56" s="4">
         <v>0</v>
@@ -44891,7 +44893,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="183" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
@@ -44905,13 +44907,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="183" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B58" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="4">
         <v>0</v>
@@ -44919,7 +44921,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="183" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B59" s="4">
         <v>0</v>
@@ -44933,7 +44935,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="183">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B60" s="4">
         <v>0</v>
@@ -44947,7 +44949,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="183" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
@@ -44961,13 +44963,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="183" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B62" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C62" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D62" s="4">
         <v>0</v>
@@ -44975,7 +44977,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="183" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B63" s="4">
         <v>0</v>
@@ -44989,13 +44991,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="183">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B64" s="4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C64" s="4">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D64" s="4">
         <v>0</v>
@@ -45003,7 +45005,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="183" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -45017,27 +45019,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="183" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B66" s="4">
-        <v>0.56999999999999995</v>
+        <v>1</v>
       </c>
       <c r="C66" s="4">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="D66" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="183">
+      <c r="A67" s="183" t="s">
         <v>44</v>
       </c>
       <c r="B67" s="4">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="C67" s="4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D67" s="4">
         <v>0</v>
@@ -45045,29 +45047,85 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="183">
+        <v>55</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="183" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="183" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="183">
+        <v>44</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="183">
         <v>33</v>
       </c>
-      <c r="B68" s="4">
-        <v>1</v>
-      </c>
-      <c r="C68" s="4">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="183">
+      <c r="B72" s="4">
+        <v>1</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="183">
         <v>22</v>
       </c>
-      <c r="B69" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="C69" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="D69" s="4">
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
         <v>0</v>
       </c>
     </row>
@@ -45077,6 +45135,987 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="184" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="183" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="183" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="183" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="183" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="183" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="183" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="183" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="183" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="183" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="183" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="183" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="183" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="183" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="183" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="183" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="183" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="183" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="183">
+        <v>99</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="183" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="183" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="183" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="183">
+        <v>88</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="183" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="183">
+        <v>77</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="183" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="183" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="183" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="183">
+        <v>66</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="183" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="183" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="183" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="183">
+        <v>55</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="183" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="183" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="183">
+        <v>44</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="183">
+        <v>33</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="183">
+        <v>22</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
@@ -46440,7 +47479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
@@ -47517,1873 +48556,1722 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="184" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="153">
-        <v>0.42</v>
-      </c>
-      <c r="C2" s="153">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D2" s="153">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="153">
+      <c r="A3" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="183" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="183" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="183" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="183" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="183" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="183" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="183" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="183" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="183" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="183" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="183" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="183" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="183" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="183" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="183" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="183" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="183" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="183" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="183" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="183" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="183" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="183" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="183" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="183" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="183" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="183" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="183" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="183" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="183" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="183" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="183" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="183" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="183" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="183" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="183" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="183" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="183" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="183">
+        <v>99</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="183" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="183" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="183" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="183" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="183" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="183" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="183" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="4">
+        <v>1</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="183" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="4">
+        <v>1</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="183" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="183" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="4">
+        <v>1</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="183" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="183">
+        <v>88</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="4">
+        <v>1</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="183" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="183" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="4">
+        <v>1</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="183" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="4">
+        <v>1</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="183" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="183" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="4">
+        <v>1</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="183">
+        <v>77</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="183" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="4">
+        <v>1</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="183" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" s="4">
+        <v>1</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="183" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" s="4">
+        <v>1</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="183" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="4">
+        <v>1</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="183" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" s="4">
+        <v>1</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="183" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" s="4">
+        <v>1</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="183" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0</v>
+      </c>
+      <c r="C100" s="4">
+        <v>1</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="183">
+        <v>66</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0</v>
+      </c>
+      <c r="C101" s="4">
+        <v>1</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="4">
+        <v>1</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="183" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="183" t="s">
+        <v>69</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="183" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="183" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="183" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="4">
         <v>0.86</v>
       </c>
-      <c r="C3" s="153">
+      <c r="C107" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D3" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="153">
-        <v>1</v>
-      </c>
-      <c r="C4" s="153">
-        <v>0</v>
-      </c>
-      <c r="D4" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="153">
-        <v>1</v>
-      </c>
-      <c r="C5" s="153">
-        <v>0</v>
-      </c>
-      <c r="D5" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="152" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="153">
-        <v>1</v>
-      </c>
-      <c r="C6" s="153">
-        <v>0</v>
-      </c>
-      <c r="D6" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="152" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="153">
-        <v>1</v>
-      </c>
-      <c r="C7" s="153">
-        <v>0</v>
-      </c>
-      <c r="D7" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="152" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="153">
-        <v>1</v>
-      </c>
-      <c r="C8" s="153">
-        <v>0</v>
-      </c>
-      <c r="D8" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="152" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="153">
-        <v>1</v>
-      </c>
-      <c r="C9" s="153">
-        <v>0</v>
-      </c>
-      <c r="D9" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="152" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="153">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C10" s="153">
-        <v>0.43</v>
-      </c>
-      <c r="D10" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="155" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="156">
-        <v>0</v>
-      </c>
-      <c r="C11" s="156">
-        <v>1</v>
-      </c>
-      <c r="D11" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="155" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="156">
-        <v>0</v>
-      </c>
-      <c r="C12" s="156">
-        <v>1</v>
-      </c>
-      <c r="D12" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="155" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="156">
-        <v>0</v>
-      </c>
-      <c r="C13" s="156">
-        <v>1</v>
-      </c>
-      <c r="D13" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="155" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="156">
-        <v>0</v>
-      </c>
-      <c r="C14" s="156">
-        <v>1</v>
-      </c>
-      <c r="D14" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="152" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="153">
-        <v>0.3</v>
-      </c>
-      <c r="C15" s="153">
-        <v>0.7</v>
-      </c>
-      <c r="D15" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="152" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="153">
-        <v>0.26</v>
-      </c>
-      <c r="C16" s="153">
-        <v>0.74</v>
-      </c>
-      <c r="D16" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="152" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="153">
-        <v>0.81</v>
-      </c>
-      <c r="C17" s="153">
-        <v>0.19</v>
-      </c>
-      <c r="D17" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="152" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="153">
-        <v>0.85</v>
-      </c>
-      <c r="C18" s="153">
-        <v>0.15</v>
-      </c>
-      <c r="D18" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="152" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="153">
-        <v>0.93</v>
-      </c>
-      <c r="C19" s="153">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D19" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="152" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="153">
-        <v>1</v>
-      </c>
-      <c r="C20" s="153">
-        <v>0</v>
-      </c>
-      <c r="D20" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="152" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="153">
-        <v>0.88</v>
-      </c>
-      <c r="C21" s="153">
-        <v>0.12</v>
-      </c>
-      <c r="D21" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="155" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="156">
-        <v>0</v>
-      </c>
-      <c r="C22" s="156">
-        <v>1</v>
-      </c>
-      <c r="D22" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="153">
-        <v>0.21</v>
-      </c>
-      <c r="C23" s="153">
-        <v>0.79</v>
-      </c>
-      <c r="D23" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="155" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="156">
-        <v>0</v>
-      </c>
-      <c r="C24" s="156">
-        <v>1</v>
-      </c>
-      <c r="D24" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="155" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="156">
-        <v>0</v>
-      </c>
-      <c r="C25" s="156">
-        <v>1</v>
-      </c>
-      <c r="D25" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="155" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="156">
-        <v>0</v>
-      </c>
-      <c r="C26" s="156">
-        <v>1</v>
-      </c>
-      <c r="D26" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="155" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="156">
-        <v>0</v>
-      </c>
-      <c r="C27" s="156">
-        <v>1</v>
-      </c>
-      <c r="D27" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="152" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="153">
-        <v>0.78</v>
-      </c>
-      <c r="C28" s="153">
-        <v>0.22</v>
-      </c>
-      <c r="D28" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="152" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="153">
-        <v>0.86</v>
-      </c>
-      <c r="C29" s="153">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D29" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="152" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="153">
-        <v>0.87</v>
-      </c>
-      <c r="C30" s="153">
-        <v>0.13</v>
-      </c>
-      <c r="D30" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="152" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="153">
-        <v>0.89</v>
-      </c>
-      <c r="C31" s="153">
-        <v>0.11</v>
-      </c>
-      <c r="D31" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="152" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="153">
-        <v>0.09</v>
-      </c>
-      <c r="C32" s="153">
-        <v>0.91</v>
-      </c>
-      <c r="D32" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="152" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="153">
-        <v>0.79</v>
-      </c>
-      <c r="C33" s="153">
-        <v>0.21</v>
-      </c>
-      <c r="D33" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="153">
-        <v>0.05</v>
-      </c>
-      <c r="C34" s="153">
-        <v>0.95</v>
-      </c>
-      <c r="D34" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="152" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="153">
-        <v>0.54</v>
-      </c>
-      <c r="C35" s="153">
-        <v>0.46</v>
-      </c>
-      <c r="D35" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="152" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="153">
-        <v>0.09</v>
-      </c>
-      <c r="C36" s="153">
-        <v>0.91</v>
-      </c>
-      <c r="D36" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="152" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="153">
-        <v>0.11</v>
-      </c>
-      <c r="C37" s="153">
-        <v>0.89</v>
-      </c>
-      <c r="D37" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="155" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="156">
-        <v>0</v>
-      </c>
-      <c r="C38" s="156">
-        <v>1</v>
-      </c>
-      <c r="D38" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="152" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="153">
-        <v>0.48</v>
-      </c>
-      <c r="C39" s="153">
-        <v>0.52</v>
-      </c>
-      <c r="D39" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="155" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="156">
-        <v>0</v>
-      </c>
-      <c r="C40" s="156">
-        <v>1</v>
-      </c>
-      <c r="D40" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="152" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="153">
-        <v>0.89</v>
-      </c>
-      <c r="C41" s="153">
-        <v>0.11</v>
-      </c>
-      <c r="D41" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="152" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="153">
-        <v>0.9</v>
-      </c>
-      <c r="C42" s="153">
-        <v>0.1</v>
-      </c>
-      <c r="D42" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="152" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="153">
-        <v>0.85</v>
-      </c>
-      <c r="C43" s="153">
-        <v>0.15</v>
-      </c>
-      <c r="D43" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="152" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="153">
-        <v>0.87</v>
-      </c>
-      <c r="C44" s="153">
-        <v>0.13</v>
-      </c>
-      <c r="D44" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="152" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="153">
-        <v>0.88</v>
-      </c>
-      <c r="C45" s="153">
-        <v>0.12</v>
-      </c>
-      <c r="D45" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="152" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="153">
-        <v>0.81</v>
-      </c>
-      <c r="C46" s="153">
-        <v>0.19</v>
-      </c>
-      <c r="D46" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="153">
-        <v>0.81</v>
-      </c>
-      <c r="C47" s="153">
-        <v>0.19</v>
-      </c>
-      <c r="D47" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="152" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="153">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C48" s="153">
-        <v>0.72</v>
-      </c>
-      <c r="D48" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="152" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="153">
-        <v>0.22</v>
-      </c>
-      <c r="C49" s="153">
-        <v>0.78</v>
-      </c>
-      <c r="D49" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="155" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="156">
-        <v>0</v>
-      </c>
-      <c r="C50" s="156">
-        <v>1</v>
-      </c>
-      <c r="D50" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="152" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="153">
-        <v>1</v>
-      </c>
-      <c r="C51" s="153">
-        <v>0</v>
-      </c>
-      <c r="D51" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="152" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="153">
-        <v>0.94</v>
-      </c>
-      <c r="C52" s="153">
-        <v>0.06</v>
-      </c>
-      <c r="D52" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="153">
-        <v>0.49</v>
-      </c>
-      <c r="C53" s="153">
-        <v>0.51</v>
-      </c>
-      <c r="D53" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="152" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" s="153">
-        <v>1</v>
-      </c>
-      <c r="C54" s="153">
-        <v>0</v>
-      </c>
-      <c r="D54" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="152" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" s="153">
-        <v>1</v>
-      </c>
-      <c r="C55" s="153">
-        <v>0</v>
-      </c>
-      <c r="D55" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="152" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="153">
-        <v>1</v>
-      </c>
-      <c r="C56" s="153">
-        <v>0</v>
-      </c>
-      <c r="D56" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="152" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" s="153">
-        <v>1</v>
-      </c>
-      <c r="C57" s="153">
-        <v>0</v>
-      </c>
-      <c r="D57" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="152" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="153">
-        <v>1</v>
-      </c>
-      <c r="C58" s="153">
-        <v>0</v>
-      </c>
-      <c r="D58" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="153">
-        <v>0.91</v>
-      </c>
-      <c r="C59" s="153">
-        <v>0.09</v>
-      </c>
-      <c r="D59" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="152" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="153">
-        <v>0.91</v>
-      </c>
-      <c r="C60" s="153">
-        <v>0.09</v>
-      </c>
-      <c r="D60" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="152" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="153">
-        <v>0.85</v>
-      </c>
-      <c r="C61" s="153">
-        <v>0.15</v>
-      </c>
-      <c r="D61" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="155" t="s">
+      <c r="D107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="183">
+        <v>55</v>
+      </c>
+      <c r="B108" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="183" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="4">
+        <v>1</v>
+      </c>
+      <c r="C110" s="4">
+        <v>0</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="183" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="183" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1</v>
+      </c>
+      <c r="C112" s="4">
+        <v>0</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="183" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" s="4">
+        <v>1</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="183">
+        <v>44</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1</v>
+      </c>
+      <c r="C114" s="4">
+        <v>0</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="183" t="s">
+        <v>137</v>
+      </c>
+      <c r="B115" s="4">
+        <v>1</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="183" t="s">
+        <v>147</v>
+      </c>
+      <c r="B116" s="4">
+        <v>1</v>
+      </c>
+      <c r="C116" s="4">
+        <v>0</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="183" t="s">
+        <v>62</v>
+      </c>
+      <c r="B117" s="4">
+        <v>1</v>
+      </c>
+      <c r="C117" s="4">
+        <v>0</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="183" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4">
+        <v>1</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="183">
+        <v>33</v>
+      </c>
+      <c r="B119" s="4">
+        <v>1</v>
+      </c>
+      <c r="C119" s="4">
+        <v>0</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="183" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="4">
+        <v>1</v>
+      </c>
+      <c r="C120" s="4">
+        <v>0</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="183" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="4">
+        <v>1</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="183">
         <v>22</v>
       </c>
-      <c r="B62" s="156">
-        <v>0</v>
-      </c>
-      <c r="C62" s="156">
-        <v>1</v>
-      </c>
-      <c r="D62" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="153">
-        <v>1</v>
-      </c>
-      <c r="C63" s="153">
-        <v>0</v>
-      </c>
-      <c r="D63" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="152" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="153">
-        <v>0.76</v>
-      </c>
-      <c r="C64" s="153">
-        <v>0.24</v>
-      </c>
-      <c r="D64" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="152" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="153">
-        <v>0.95</v>
-      </c>
-      <c r="C65" s="153">
-        <v>0.05</v>
-      </c>
-      <c r="D65" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="152" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="153">
-        <v>1</v>
-      </c>
-      <c r="C66" s="153">
-        <v>0</v>
-      </c>
-      <c r="D66" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="154" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="153">
-        <v>1</v>
-      </c>
-      <c r="C67" s="153">
-        <v>0</v>
-      </c>
-      <c r="D67" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="152" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="153">
-        <v>1</v>
-      </c>
-      <c r="C68" s="153">
-        <v>0</v>
-      </c>
-      <c r="D68" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="152" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" s="153">
-        <v>1</v>
-      </c>
-      <c r="C69" s="153">
-        <v>0</v>
-      </c>
-      <c r="D69" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="152" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="153">
-        <v>1</v>
-      </c>
-      <c r="C70" s="153">
-        <v>0</v>
-      </c>
-      <c r="D70" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="152" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="153">
-        <v>0.91</v>
-      </c>
-      <c r="C71" s="153">
-        <v>0.09</v>
-      </c>
-      <c r="D71" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="152" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="153">
-        <v>0.96</v>
-      </c>
-      <c r="C72" s="153">
-        <v>0.04</v>
-      </c>
-      <c r="D72" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="152" t="s">
-        <v>30</v>
-      </c>
-      <c r="B73" s="153">
-        <v>1</v>
-      </c>
-      <c r="C73" s="153">
-        <v>0</v>
-      </c>
-      <c r="D73" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="154">
-        <v>99</v>
-      </c>
-      <c r="B74" s="153">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C74" s="153">
-        <v>0.72</v>
-      </c>
-      <c r="D74" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="152" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="153">
-        <v>1</v>
-      </c>
-      <c r="C75" s="153">
-        <v>0</v>
-      </c>
-      <c r="D75" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="152" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" s="153">
-        <v>0.84</v>
-      </c>
-      <c r="C76" s="153">
-        <v>0.16</v>
-      </c>
-      <c r="D76" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="152" t="s">
-        <v>93</v>
-      </c>
-      <c r="B77" s="153">
-        <v>0.81</v>
-      </c>
-      <c r="C77" s="153">
-        <v>0.19</v>
-      </c>
-      <c r="D77" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="152" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" s="153">
-        <v>0.77</v>
-      </c>
-      <c r="C78" s="153">
-        <v>0.23</v>
-      </c>
-      <c r="D78" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="152" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" s="153">
-        <v>1</v>
-      </c>
-      <c r="C79" s="153">
-        <v>0</v>
-      </c>
-      <c r="D79" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="152" t="s">
-        <v>129</v>
-      </c>
-      <c r="B80" s="153">
-        <v>1</v>
-      </c>
-      <c r="C80" s="153">
-        <v>0</v>
-      </c>
-      <c r="D80" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="152" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81" s="153">
-        <v>1</v>
-      </c>
-      <c r="C81" s="153">
-        <v>0</v>
-      </c>
-      <c r="D81" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="152" t="s">
-        <v>131</v>
-      </c>
-      <c r="B82" s="153">
-        <v>1</v>
-      </c>
-      <c r="C82" s="153">
-        <v>0</v>
-      </c>
-      <c r="D82" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="152" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" s="153">
-        <v>0.94</v>
-      </c>
-      <c r="C83" s="153">
-        <v>0.06</v>
-      </c>
-      <c r="D83" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="152" t="s">
-        <v>59</v>
-      </c>
-      <c r="B84" s="153">
-        <v>1</v>
-      </c>
-      <c r="C84" s="153">
-        <v>0</v>
-      </c>
-      <c r="D84" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="152" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85" s="153">
-        <v>1</v>
-      </c>
-      <c r="C85" s="153">
-        <v>0</v>
-      </c>
-      <c r="D85" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="154">
-        <v>88</v>
-      </c>
-      <c r="B86" s="153">
-        <v>1</v>
-      </c>
-      <c r="C86" s="153">
-        <v>0</v>
-      </c>
-      <c r="D86" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="152" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" s="153">
-        <v>1</v>
-      </c>
-      <c r="C87" s="153">
-        <v>0</v>
-      </c>
-      <c r="D87" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="152" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" s="153">
-        <v>0.93</v>
-      </c>
-      <c r="C88" s="153">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D88" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" s="153">
-        <v>0.81</v>
-      </c>
-      <c r="C89" s="153">
-        <v>0.19</v>
-      </c>
-      <c r="D89" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="152" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" s="153">
-        <v>0.84</v>
-      </c>
-      <c r="C90" s="153">
-        <v>0.16</v>
-      </c>
-      <c r="D90" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="152" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" s="153">
-        <v>0.85</v>
-      </c>
-      <c r="C91" s="153">
-        <v>0.15</v>
-      </c>
-      <c r="D91" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="152" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92" s="153">
-        <v>1</v>
-      </c>
-      <c r="C92" s="153">
-        <v>0</v>
-      </c>
-      <c r="D92" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="152" t="s">
-        <v>132</v>
-      </c>
-      <c r="B93" s="153">
-        <v>1</v>
-      </c>
-      <c r="C93" s="153">
-        <v>0</v>
-      </c>
-      <c r="D93" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="152" t="s">
-        <v>102</v>
-      </c>
-      <c r="B94" s="153">
-        <v>1</v>
-      </c>
-      <c r="C94" s="153">
-        <v>0</v>
-      </c>
-      <c r="D94" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="152" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="153">
-        <v>1</v>
-      </c>
-      <c r="C95" s="153">
-        <v>0</v>
-      </c>
-      <c r="D95" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="152" t="s">
-        <v>33</v>
-      </c>
-      <c r="B96" s="153">
-        <v>1</v>
-      </c>
-      <c r="C96" s="153">
-        <v>0</v>
-      </c>
-      <c r="D96" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="154">
-        <v>77</v>
-      </c>
-      <c r="B97" s="153">
-        <v>1</v>
-      </c>
-      <c r="C97" s="153">
-        <v>0</v>
-      </c>
-      <c r="D97" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="152" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98" s="153">
-        <v>1</v>
-      </c>
-      <c r="C98" s="153">
-        <v>0</v>
-      </c>
-      <c r="D98" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="152" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" s="153">
-        <v>0.92</v>
-      </c>
-      <c r="C99" s="153">
-        <v>0.08</v>
-      </c>
-      <c r="D99" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="152" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" s="153">
-        <v>1</v>
-      </c>
-      <c r="C100" s="153">
-        <v>0</v>
-      </c>
-      <c r="D100" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="152" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101" s="153">
-        <v>1</v>
-      </c>
-      <c r="C101" s="153">
-        <v>0</v>
-      </c>
-      <c r="D101" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="B102" s="153">
-        <v>0.85</v>
-      </c>
-      <c r="C102" s="153">
-        <v>0.15</v>
-      </c>
-      <c r="D102" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="152" t="s">
-        <v>68</v>
-      </c>
-      <c r="B103" s="153">
-        <v>1</v>
-      </c>
-      <c r="C103" s="153">
-        <v>0</v>
-      </c>
-      <c r="D103" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="152" t="s">
-        <v>133</v>
-      </c>
-      <c r="B104" s="153">
-        <v>1</v>
-      </c>
-      <c r="C104" s="153">
-        <v>0</v>
-      </c>
-      <c r="D104" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="152" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" s="153">
-        <v>1</v>
-      </c>
-      <c r="C105" s="153">
-        <v>0</v>
-      </c>
-      <c r="D105" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="B106" s="153">
-        <v>1</v>
-      </c>
-      <c r="C106" s="153">
-        <v>0</v>
-      </c>
-      <c r="D106" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="152" t="s">
-        <v>35</v>
-      </c>
-      <c r="B107" s="153">
-        <v>1</v>
-      </c>
-      <c r="C107" s="153">
-        <v>0</v>
-      </c>
-      <c r="D107" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="154">
-        <v>66</v>
-      </c>
-      <c r="B108" s="153">
-        <v>1</v>
-      </c>
-      <c r="C108" s="153">
-        <v>0</v>
-      </c>
-      <c r="D108" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="152" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="153">
-        <v>1</v>
-      </c>
-      <c r="C109" s="153">
-        <v>0</v>
-      </c>
-      <c r="D109" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="152" t="s">
-        <v>134</v>
-      </c>
-      <c r="B110" s="153">
-        <v>1</v>
-      </c>
-      <c r="C110" s="153">
-        <v>0</v>
-      </c>
-      <c r="D110" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="150" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" s="151">
-        <v>0</v>
-      </c>
-      <c r="C111" s="151">
-        <v>0.21</v>
-      </c>
-      <c r="D111" s="151">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="152" t="s">
-        <v>69</v>
-      </c>
-      <c r="B112" s="153">
-        <v>0.92</v>
-      </c>
-      <c r="C112" s="153">
-        <v>0.08</v>
-      </c>
-      <c r="D112" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="152" t="s">
-        <v>135</v>
-      </c>
-      <c r="B113" s="153">
-        <v>1</v>
-      </c>
-      <c r="C113" s="153">
-        <v>0</v>
-      </c>
-      <c r="D113" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="152" t="s">
-        <v>36</v>
-      </c>
-      <c r="B114" s="153">
-        <v>1</v>
-      </c>
-      <c r="C114" s="153">
-        <v>0</v>
-      </c>
-      <c r="D114" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="152" t="s">
-        <v>44</v>
-      </c>
-      <c r="B115" s="153">
-        <v>1</v>
-      </c>
-      <c r="C115" s="153">
-        <v>0</v>
-      </c>
-      <c r="D115" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="154">
-        <v>55</v>
-      </c>
-      <c r="B116" s="153">
-        <v>1</v>
-      </c>
-      <c r="C116" s="153">
-        <v>0</v>
-      </c>
-      <c r="D116" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="152" t="s">
-        <v>112</v>
-      </c>
-      <c r="B117" s="153">
-        <v>1</v>
-      </c>
-      <c r="C117" s="153">
-        <v>0</v>
-      </c>
-      <c r="D117" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="150" t="s">
-        <v>114</v>
-      </c>
-      <c r="B118" s="151">
-        <v>0</v>
-      </c>
-      <c r="C118" s="151">
-        <v>0.06</v>
-      </c>
-      <c r="D118" s="151">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="152" t="s">
-        <v>70</v>
-      </c>
-      <c r="B119" s="153">
-        <v>0.88</v>
-      </c>
-      <c r="C119" s="153">
-        <v>0.12</v>
-      </c>
-      <c r="D119" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="152" t="s">
-        <v>136</v>
-      </c>
-      <c r="B120" s="153">
-        <v>1</v>
-      </c>
-      <c r="C120" s="153">
-        <v>0</v>
-      </c>
-      <c r="D120" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="152" t="s">
-        <v>60</v>
-      </c>
-      <c r="B121" s="153">
-        <v>1</v>
-      </c>
-      <c r="C121" s="153">
-        <v>0</v>
-      </c>
-      <c r="D121" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="154">
-        <v>44</v>
-      </c>
-      <c r="B122" s="153">
-        <v>1</v>
-      </c>
-      <c r="C122" s="153">
-        <v>0</v>
-      </c>
-      <c r="D122" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="152" t="s">
-        <v>137</v>
-      </c>
-      <c r="B123" s="153">
-        <v>1</v>
-      </c>
-      <c r="C123" s="153">
-        <v>0</v>
-      </c>
-      <c r="D123" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="150" t="s">
-        <v>116</v>
-      </c>
-      <c r="B124" s="151">
-        <v>0</v>
-      </c>
-      <c r="C124" s="151">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D124" s="151">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="152" t="s">
-        <v>62</v>
-      </c>
-      <c r="B125" s="153">
-        <v>0.32</v>
-      </c>
-      <c r="C125" s="153">
-        <v>0.68</v>
-      </c>
-      <c r="D125" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="152" t="s">
-        <v>117</v>
-      </c>
-      <c r="B126" s="153">
-        <v>1</v>
-      </c>
-      <c r="C126" s="153">
-        <v>0</v>
-      </c>
-      <c r="D126" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="150" t="s">
-        <v>118</v>
-      </c>
-      <c r="B127" s="151">
-        <v>0</v>
-      </c>
-      <c r="C127" s="151">
-        <v>0.1</v>
-      </c>
-      <c r="D127" s="151">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="152" t="s">
-        <v>119</v>
-      </c>
-      <c r="B128" s="153">
-        <v>0.05</v>
-      </c>
-      <c r="C128" s="153">
-        <v>0.95</v>
-      </c>
-      <c r="D128" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="154">
-        <v>22</v>
-      </c>
-      <c r="B129" s="153">
-        <v>1</v>
-      </c>
-      <c r="C129" s="153">
-        <v>0</v>
-      </c>
-      <c r="D129" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="150" t="s">
-        <v>121</v>
-      </c>
-      <c r="B130" s="151">
-        <v>0</v>
-      </c>
-      <c r="C130" s="151">
-        <v>0.13</v>
-      </c>
-      <c r="D130" s="151">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="152" t="s">
-        <v>122</v>
-      </c>
-      <c r="B131" s="153">
-        <v>0.16</v>
-      </c>
-      <c r="C131" s="153">
-        <v>0.84</v>
-      </c>
-      <c r="D131" s="153">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>174</v>
+      <c r="B122" s="4">
+        <v>1</v>
+      </c>
+      <c r="C122" s="4">
+        <v>0</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -49716,6 +50604,1880 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D131"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="142" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="153">
+        <v>0.42</v>
+      </c>
+      <c r="C2" s="153">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D2" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="152" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="153">
+        <v>0.86</v>
+      </c>
+      <c r="C3" s="153">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D3" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="153">
+        <v>1</v>
+      </c>
+      <c r="C4" s="153">
+        <v>0</v>
+      </c>
+      <c r="D4" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="153">
+        <v>1</v>
+      </c>
+      <c r="C5" s="153">
+        <v>0</v>
+      </c>
+      <c r="D5" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="153">
+        <v>1</v>
+      </c>
+      <c r="C6" s="153">
+        <v>0</v>
+      </c>
+      <c r="D6" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="153">
+        <v>1</v>
+      </c>
+      <c r="C7" s="153">
+        <v>0</v>
+      </c>
+      <c r="D7" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="152" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="153">
+        <v>1</v>
+      </c>
+      <c r="C8" s="153">
+        <v>0</v>
+      </c>
+      <c r="D8" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="153">
+        <v>1</v>
+      </c>
+      <c r="C9" s="153">
+        <v>0</v>
+      </c>
+      <c r="D9" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="153">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C10" s="153">
+        <v>0.43</v>
+      </c>
+      <c r="D10" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="155" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="156">
+        <v>0</v>
+      </c>
+      <c r="C11" s="156">
+        <v>1</v>
+      </c>
+      <c r="D11" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="156">
+        <v>0</v>
+      </c>
+      <c r="C12" s="156">
+        <v>1</v>
+      </c>
+      <c r="D12" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="156">
+        <v>0</v>
+      </c>
+      <c r="C13" s="156">
+        <v>1</v>
+      </c>
+      <c r="D13" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="156">
+        <v>0</v>
+      </c>
+      <c r="C14" s="156">
+        <v>1</v>
+      </c>
+      <c r="D14" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="152" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="153">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="153">
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="153">
+        <v>0.26</v>
+      </c>
+      <c r="C16" s="153">
+        <v>0.74</v>
+      </c>
+      <c r="D16" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="152" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="153">
+        <v>0.81</v>
+      </c>
+      <c r="C17" s="153">
+        <v>0.19</v>
+      </c>
+      <c r="D17" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="152" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="153">
+        <v>0.85</v>
+      </c>
+      <c r="C18" s="153">
+        <v>0.15</v>
+      </c>
+      <c r="D18" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="152" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="153">
+        <v>0.93</v>
+      </c>
+      <c r="C19" s="153">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D19" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="152" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="153">
+        <v>1</v>
+      </c>
+      <c r="C20" s="153">
+        <v>0</v>
+      </c>
+      <c r="D20" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="152" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="153">
+        <v>0.88</v>
+      </c>
+      <c r="C21" s="153">
+        <v>0.12</v>
+      </c>
+      <c r="D21" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="155" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="156">
+        <v>0</v>
+      </c>
+      <c r="C22" s="156">
+        <v>1</v>
+      </c>
+      <c r="D22" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="152" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="153">
+        <v>0.21</v>
+      </c>
+      <c r="C23" s="153">
+        <v>0.79</v>
+      </c>
+      <c r="D23" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="156">
+        <v>0</v>
+      </c>
+      <c r="C24" s="156">
+        <v>1</v>
+      </c>
+      <c r="D24" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="156">
+        <v>0</v>
+      </c>
+      <c r="C25" s="156">
+        <v>1</v>
+      </c>
+      <c r="D25" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="156">
+        <v>0</v>
+      </c>
+      <c r="C26" s="156">
+        <v>1</v>
+      </c>
+      <c r="D26" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="156">
+        <v>0</v>
+      </c>
+      <c r="C27" s="156">
+        <v>1</v>
+      </c>
+      <c r="D27" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="152" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="153">
+        <v>0.78</v>
+      </c>
+      <c r="C28" s="153">
+        <v>0.22</v>
+      </c>
+      <c r="D28" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="152" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="153">
+        <v>0.86</v>
+      </c>
+      <c r="C29" s="153">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D29" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="152" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="153">
+        <v>0.87</v>
+      </c>
+      <c r="C30" s="153">
+        <v>0.13</v>
+      </c>
+      <c r="D30" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="152" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="153">
+        <v>0.89</v>
+      </c>
+      <c r="C31" s="153">
+        <v>0.11</v>
+      </c>
+      <c r="D31" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="152" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="153">
+        <v>0.09</v>
+      </c>
+      <c r="C32" s="153">
+        <v>0.91</v>
+      </c>
+      <c r="D32" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="152" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="153">
+        <v>0.79</v>
+      </c>
+      <c r="C33" s="153">
+        <v>0.21</v>
+      </c>
+      <c r="D33" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="152" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="153">
+        <v>0.05</v>
+      </c>
+      <c r="C34" s="153">
+        <v>0.95</v>
+      </c>
+      <c r="D34" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="152" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="153">
+        <v>0.54</v>
+      </c>
+      <c r="C35" s="153">
+        <v>0.46</v>
+      </c>
+      <c r="D35" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="153">
+        <v>0.09</v>
+      </c>
+      <c r="C36" s="153">
+        <v>0.91</v>
+      </c>
+      <c r="D36" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="153">
+        <v>0.11</v>
+      </c>
+      <c r="C37" s="153">
+        <v>0.89</v>
+      </c>
+      <c r="D37" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="155" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="156">
+        <v>0</v>
+      </c>
+      <c r="C38" s="156">
+        <v>1</v>
+      </c>
+      <c r="D38" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="152" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="153">
+        <v>0.48</v>
+      </c>
+      <c r="C39" s="153">
+        <v>0.52</v>
+      </c>
+      <c r="D39" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="156">
+        <v>0</v>
+      </c>
+      <c r="C40" s="156">
+        <v>1</v>
+      </c>
+      <c r="D40" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="152" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="153">
+        <v>0.89</v>
+      </c>
+      <c r="C41" s="153">
+        <v>0.11</v>
+      </c>
+      <c r="D41" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="152" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="153">
+        <v>0.9</v>
+      </c>
+      <c r="C42" s="153">
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="152" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="153">
+        <v>0.85</v>
+      </c>
+      <c r="C43" s="153">
+        <v>0.15</v>
+      </c>
+      <c r="D43" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="152" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="153">
+        <v>0.87</v>
+      </c>
+      <c r="C44" s="153">
+        <v>0.13</v>
+      </c>
+      <c r="D44" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="152" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="153">
+        <v>0.88</v>
+      </c>
+      <c r="C45" s="153">
+        <v>0.12</v>
+      </c>
+      <c r="D45" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="152" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="153">
+        <v>0.81</v>
+      </c>
+      <c r="C46" s="153">
+        <v>0.19</v>
+      </c>
+      <c r="D46" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="152" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="153">
+        <v>0.81</v>
+      </c>
+      <c r="C47" s="153">
+        <v>0.19</v>
+      </c>
+      <c r="D47" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="152" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="153">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C48" s="153">
+        <v>0.72</v>
+      </c>
+      <c r="D48" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="153">
+        <v>0.22</v>
+      </c>
+      <c r="C49" s="153">
+        <v>0.78</v>
+      </c>
+      <c r="D49" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="155" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="156">
+        <v>0</v>
+      </c>
+      <c r="C50" s="156">
+        <v>1</v>
+      </c>
+      <c r="D50" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="152" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="153">
+        <v>1</v>
+      </c>
+      <c r="C51" s="153">
+        <v>0</v>
+      </c>
+      <c r="D51" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="153">
+        <v>0.94</v>
+      </c>
+      <c r="C52" s="153">
+        <v>0.06</v>
+      </c>
+      <c r="D52" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="153">
+        <v>0.49</v>
+      </c>
+      <c r="C53" s="153">
+        <v>0.51</v>
+      </c>
+      <c r="D53" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="152" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="153">
+        <v>1</v>
+      </c>
+      <c r="C54" s="153">
+        <v>0</v>
+      </c>
+      <c r="D54" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="152" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="153">
+        <v>1</v>
+      </c>
+      <c r="C55" s="153">
+        <v>0</v>
+      </c>
+      <c r="D55" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="152" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="153">
+        <v>1</v>
+      </c>
+      <c r="C56" s="153">
+        <v>0</v>
+      </c>
+      <c r="D56" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="153">
+        <v>1</v>
+      </c>
+      <c r="C57" s="153">
+        <v>0</v>
+      </c>
+      <c r="D57" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="152" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="153">
+        <v>1</v>
+      </c>
+      <c r="C58" s="153">
+        <v>0</v>
+      </c>
+      <c r="D58" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="153">
+        <v>0.91</v>
+      </c>
+      <c r="C59" s="153">
+        <v>0.09</v>
+      </c>
+      <c r="D59" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="152" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="153">
+        <v>0.91</v>
+      </c>
+      <c r="C60" s="153">
+        <v>0.09</v>
+      </c>
+      <c r="D60" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="152" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="153">
+        <v>0.85</v>
+      </c>
+      <c r="C61" s="153">
+        <v>0.15</v>
+      </c>
+      <c r="D61" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="155" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="156">
+        <v>0</v>
+      </c>
+      <c r="C62" s="156">
+        <v>1</v>
+      </c>
+      <c r="D62" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="152" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="153">
+        <v>1</v>
+      </c>
+      <c r="C63" s="153">
+        <v>0</v>
+      </c>
+      <c r="D63" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="152" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="153">
+        <v>0.76</v>
+      </c>
+      <c r="C64" s="153">
+        <v>0.24</v>
+      </c>
+      <c r="D64" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="152" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="153">
+        <v>0.95</v>
+      </c>
+      <c r="C65" s="153">
+        <v>0.05</v>
+      </c>
+      <c r="D65" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="153">
+        <v>1</v>
+      </c>
+      <c r="C66" s="153">
+        <v>0</v>
+      </c>
+      <c r="D66" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="154" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="153">
+        <v>1</v>
+      </c>
+      <c r="C67" s="153">
+        <v>0</v>
+      </c>
+      <c r="D67" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="152" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="153">
+        <v>1</v>
+      </c>
+      <c r="C68" s="153">
+        <v>0</v>
+      </c>
+      <c r="D68" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="153">
+        <v>1</v>
+      </c>
+      <c r="C69" s="153">
+        <v>0</v>
+      </c>
+      <c r="D69" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="152" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="153">
+        <v>1</v>
+      </c>
+      <c r="C70" s="153">
+        <v>0</v>
+      </c>
+      <c r="D70" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="152" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="153">
+        <v>0.91</v>
+      </c>
+      <c r="C71" s="153">
+        <v>0.09</v>
+      </c>
+      <c r="D71" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="152" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="153">
+        <v>0.96</v>
+      </c>
+      <c r="C72" s="153">
+        <v>0.04</v>
+      </c>
+      <c r="D72" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="152" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="153">
+        <v>1</v>
+      </c>
+      <c r="C73" s="153">
+        <v>0</v>
+      </c>
+      <c r="D73" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="154">
+        <v>99</v>
+      </c>
+      <c r="B74" s="153">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C74" s="153">
+        <v>0.72</v>
+      </c>
+      <c r="D74" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="152" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="153">
+        <v>1</v>
+      </c>
+      <c r="C75" s="153">
+        <v>0</v>
+      </c>
+      <c r="D75" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="152" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="153">
+        <v>0.84</v>
+      </c>
+      <c r="C76" s="153">
+        <v>0.16</v>
+      </c>
+      <c r="D76" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="152" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="153">
+        <v>0.81</v>
+      </c>
+      <c r="C77" s="153">
+        <v>0.19</v>
+      </c>
+      <c r="D77" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="152" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="153">
+        <v>0.77</v>
+      </c>
+      <c r="C78" s="153">
+        <v>0.23</v>
+      </c>
+      <c r="D78" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" s="153">
+        <v>1</v>
+      </c>
+      <c r="C79" s="153">
+        <v>0</v>
+      </c>
+      <c r="D79" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="153">
+        <v>1</v>
+      </c>
+      <c r="C80" s="153">
+        <v>0</v>
+      </c>
+      <c r="D80" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="153">
+        <v>1</v>
+      </c>
+      <c r="C81" s="153">
+        <v>0</v>
+      </c>
+      <c r="D81" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="152" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="153">
+        <v>1</v>
+      </c>
+      <c r="C82" s="153">
+        <v>0</v>
+      </c>
+      <c r="D82" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="152" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="153">
+        <v>0.94</v>
+      </c>
+      <c r="C83" s="153">
+        <v>0.06</v>
+      </c>
+      <c r="D83" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="152" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="153">
+        <v>1</v>
+      </c>
+      <c r="C84" s="153">
+        <v>0</v>
+      </c>
+      <c r="D84" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="152" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="153">
+        <v>1</v>
+      </c>
+      <c r="C85" s="153">
+        <v>0</v>
+      </c>
+      <c r="D85" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="154">
+        <v>88</v>
+      </c>
+      <c r="B86" s="153">
+        <v>1</v>
+      </c>
+      <c r="C86" s="153">
+        <v>0</v>
+      </c>
+      <c r="D86" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="152" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="153">
+        <v>1</v>
+      </c>
+      <c r="C87" s="153">
+        <v>0</v>
+      </c>
+      <c r="D87" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="152" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" s="153">
+        <v>0.93</v>
+      </c>
+      <c r="C88" s="153">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D88" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="152" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="153">
+        <v>0.81</v>
+      </c>
+      <c r="C89" s="153">
+        <v>0.19</v>
+      </c>
+      <c r="D89" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="152" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="153">
+        <v>0.84</v>
+      </c>
+      <c r="C90" s="153">
+        <v>0.16</v>
+      </c>
+      <c r="D90" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="152" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="153">
+        <v>0.85</v>
+      </c>
+      <c r="C91" s="153">
+        <v>0.15</v>
+      </c>
+      <c r="D91" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="152" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="153">
+        <v>1</v>
+      </c>
+      <c r="C92" s="153">
+        <v>0</v>
+      </c>
+      <c r="D92" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="152" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="153">
+        <v>1</v>
+      </c>
+      <c r="C93" s="153">
+        <v>0</v>
+      </c>
+      <c r="D93" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="152" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="153">
+        <v>1</v>
+      </c>
+      <c r="C94" s="153">
+        <v>0</v>
+      </c>
+      <c r="D94" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="152" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="153">
+        <v>1</v>
+      </c>
+      <c r="C95" s="153">
+        <v>0</v>
+      </c>
+      <c r="D95" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="153">
+        <v>1</v>
+      </c>
+      <c r="C96" s="153">
+        <v>0</v>
+      </c>
+      <c r="D96" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="154">
+        <v>77</v>
+      </c>
+      <c r="B97" s="153">
+        <v>1</v>
+      </c>
+      <c r="C97" s="153">
+        <v>0</v>
+      </c>
+      <c r="D97" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="152" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="153">
+        <v>1</v>
+      </c>
+      <c r="C98" s="153">
+        <v>0</v>
+      </c>
+      <c r="D98" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="152" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" s="153">
+        <v>0.92</v>
+      </c>
+      <c r="C99" s="153">
+        <v>0.08</v>
+      </c>
+      <c r="D99" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="152" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" s="153">
+        <v>1</v>
+      </c>
+      <c r="C100" s="153">
+        <v>0</v>
+      </c>
+      <c r="D100" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="152" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="153">
+        <v>1</v>
+      </c>
+      <c r="C101" s="153">
+        <v>0</v>
+      </c>
+      <c r="D101" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" s="153">
+        <v>0.85</v>
+      </c>
+      <c r="C102" s="153">
+        <v>0.15</v>
+      </c>
+      <c r="D102" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="152" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103" s="153">
+        <v>1</v>
+      </c>
+      <c r="C103" s="153">
+        <v>0</v>
+      </c>
+      <c r="D103" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="152" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="153">
+        <v>1</v>
+      </c>
+      <c r="C104" s="153">
+        <v>0</v>
+      </c>
+      <c r="D104" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="152" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="153">
+        <v>1</v>
+      </c>
+      <c r="C105" s="153">
+        <v>0</v>
+      </c>
+      <c r="D105" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="153">
+        <v>1</v>
+      </c>
+      <c r="C106" s="153">
+        <v>0</v>
+      </c>
+      <c r="D106" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" s="153">
+        <v>1</v>
+      </c>
+      <c r="C107" s="153">
+        <v>0</v>
+      </c>
+      <c r="D107" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="154">
+        <v>66</v>
+      </c>
+      <c r="B108" s="153">
+        <v>1</v>
+      </c>
+      <c r="C108" s="153">
+        <v>0</v>
+      </c>
+      <c r="D108" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="153">
+        <v>1</v>
+      </c>
+      <c r="C109" s="153">
+        <v>0</v>
+      </c>
+      <c r="D109" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="152" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="153">
+        <v>1</v>
+      </c>
+      <c r="C110" s="153">
+        <v>0</v>
+      </c>
+      <c r="D110" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="150" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="151">
+        <v>0</v>
+      </c>
+      <c r="C111" s="151">
+        <v>0.21</v>
+      </c>
+      <c r="D111" s="151">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="152" t="s">
+        <v>69</v>
+      </c>
+      <c r="B112" s="153">
+        <v>0.92</v>
+      </c>
+      <c r="C112" s="153">
+        <v>0.08</v>
+      </c>
+      <c r="D112" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" s="153">
+        <v>1</v>
+      </c>
+      <c r="C113" s="153">
+        <v>0</v>
+      </c>
+      <c r="D113" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="152" t="s">
+        <v>36</v>
+      </c>
+      <c r="B114" s="153">
+        <v>1</v>
+      </c>
+      <c r="C114" s="153">
+        <v>0</v>
+      </c>
+      <c r="D114" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="152" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115" s="153">
+        <v>1</v>
+      </c>
+      <c r="C115" s="153">
+        <v>0</v>
+      </c>
+      <c r="D115" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="154">
+        <v>55</v>
+      </c>
+      <c r="B116" s="153">
+        <v>1</v>
+      </c>
+      <c r="C116" s="153">
+        <v>0</v>
+      </c>
+      <c r="D116" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="152" t="s">
+        <v>112</v>
+      </c>
+      <c r="B117" s="153">
+        <v>1</v>
+      </c>
+      <c r="C117" s="153">
+        <v>0</v>
+      </c>
+      <c r="D117" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="150" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" s="151">
+        <v>0</v>
+      </c>
+      <c r="C118" s="151">
+        <v>0.06</v>
+      </c>
+      <c r="D118" s="151">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="152" t="s">
+        <v>70</v>
+      </c>
+      <c r="B119" s="153">
+        <v>0.88</v>
+      </c>
+      <c r="C119" s="153">
+        <v>0.12</v>
+      </c>
+      <c r="D119" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="152" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" s="153">
+        <v>1</v>
+      </c>
+      <c r="C120" s="153">
+        <v>0</v>
+      </c>
+      <c r="D120" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="152" t="s">
+        <v>60</v>
+      </c>
+      <c r="B121" s="153">
+        <v>1</v>
+      </c>
+      <c r="C121" s="153">
+        <v>0</v>
+      </c>
+      <c r="D121" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="154">
+        <v>44</v>
+      </c>
+      <c r="B122" s="153">
+        <v>1</v>
+      </c>
+      <c r="C122" s="153">
+        <v>0</v>
+      </c>
+      <c r="D122" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="152" t="s">
+        <v>137</v>
+      </c>
+      <c r="B123" s="153">
+        <v>1</v>
+      </c>
+      <c r="C123" s="153">
+        <v>0</v>
+      </c>
+      <c r="D123" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="150" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124" s="151">
+        <v>0</v>
+      </c>
+      <c r="C124" s="151">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D124" s="151">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="B125" s="153">
+        <v>0.32</v>
+      </c>
+      <c r="C125" s="153">
+        <v>0.68</v>
+      </c>
+      <c r="D125" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="152" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" s="153">
+        <v>1</v>
+      </c>
+      <c r="C126" s="153">
+        <v>0</v>
+      </c>
+      <c r="D126" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="150" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127" s="151">
+        <v>0</v>
+      </c>
+      <c r="C127" s="151">
+        <v>0.1</v>
+      </c>
+      <c r="D127" s="151">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128" s="153">
+        <v>0.05</v>
+      </c>
+      <c r="C128" s="153">
+        <v>0.95</v>
+      </c>
+      <c r="D128" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="154">
+        <v>22</v>
+      </c>
+      <c r="B129" s="153">
+        <v>1</v>
+      </c>
+      <c r="C129" s="153">
+        <v>0</v>
+      </c>
+      <c r="D129" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130" s="151">
+        <v>0</v>
+      </c>
+      <c r="C130" s="151">
+        <v>0.13</v>
+      </c>
+      <c r="D130" s="151">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="152" t="s">
+        <v>122</v>
+      </c>
+      <c r="B131" s="153">
+        <v>0.16</v>
+      </c>
+      <c r="C131" s="153">
+        <v>0.84</v>
+      </c>
+      <c r="D131" s="153">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50289,7 +53051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
